--- a/28.CDC case counts/Output/Bulk_Historical_Update_Colorado_2022-03-22.xlsx
+++ b/28.CDC case counts/Output/Bulk_Historical_Update_Colorado_2022-03-22.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eabush\Documents\GitHub\Data-requests\28.CDC case counts\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="C:\Users\eabush\Documents\GitHub\Data-requests\28.CDC case counts\Output\"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="Jurisdictional_Aggregate_Data" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="Jurisdictional_Aggregate_Data"/>
   </sheets>
   <definedNames>
-    <definedName name="Jurisdictional_Aggregate_Data">Jurisdictional_Aggregate_Data!$A$1:$M$751</definedName>
+    <definedName name="Jurisdictional_Aggregate_Data">'Jurisdictional_Aggregate_Data'!$A$1:$M$753</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -404,10 +400,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M751"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:M753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -428,48 +424,74 @@
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Submission_Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>New_Confirmed_Cases</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total_Confirmed_Cases</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>New_Probable_Cases</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Probable_Cases</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Total_New_Cases</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Total_Cases</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>New_Confirmed_Deathsd</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Total_Confirmed_Deaths</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>New_Probable_Deaths</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total_Probable_Deaths</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>New_deaths</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Total_Deaths</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -510,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="1">
         <v>43892</v>
       </c>
@@ -551,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="1">
         <v>43893</v>
       </c>
@@ -592,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="1">
         <v>43894</v>
       </c>
@@ -633,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="1">
         <v>43895</v>
       </c>
@@ -674,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="1">
         <v>43896</v>
       </c>
@@ -715,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="1">
         <v>43897</v>
       </c>
@@ -756,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" s="1">
         <v>43898</v>
       </c>
@@ -797,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10" s="1">
         <v>43899</v>
       </c>
@@ -838,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11" s="1">
         <v>43900</v>
       </c>
@@ -879,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12" s="1">
         <v>43901</v>
       </c>
@@ -920,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
@@ -961,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -1002,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
@@ -1043,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16" s="1">
         <v>43905</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17" s="1">
         <v>43906</v>
       </c>
@@ -1125,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
       <c r="A18" s="1">
         <v>43907</v>
       </c>
@@ -1166,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
@@ -1207,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
       <c r="A20" s="1">
         <v>43909</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
       <c r="A21" s="1">
         <v>43910</v>
       </c>
@@ -1289,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
       <c r="A22" s="1">
         <v>43911</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
       <c r="A23" s="1">
         <v>43912</v>
       </c>
@@ -1371,7 +1393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
       <c r="A24" s="1">
         <v>43913</v>
       </c>
@@ -1412,7 +1434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
       <c r="A25" s="1">
         <v>43914</v>
       </c>
@@ -1453,7 +1475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
       <c r="A26" s="1">
         <v>43915</v>
       </c>
@@ -1494,7 +1516,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
       <c r="A27" s="1">
         <v>43916</v>
       </c>
@@ -1535,7 +1557,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="28">
       <c r="A28" s="1">
         <v>43917</v>
       </c>
@@ -1576,7 +1598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="29">
       <c r="A29" s="1">
         <v>43918</v>
       </c>
@@ -1617,7 +1639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="30">
       <c r="A30" s="1">
         <v>43919</v>
       </c>
@@ -1658,7 +1680,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="31">
       <c r="A31" s="1">
         <v>43920</v>
       </c>
@@ -1699,7 +1721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="32">
       <c r="A32" s="1">
         <v>43921</v>
       </c>
@@ -1740,7 +1762,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="33">
       <c r="A33" s="1">
         <v>43922</v>
       </c>
@@ -1781,7 +1803,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="34">
       <c r="A34" s="1">
         <v>43923</v>
       </c>
@@ -1822,7 +1844,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="35">
       <c r="A35" s="1">
         <v>43924</v>
       </c>
@@ -1863,7 +1885,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="36">
       <c r="A36" s="1">
         <v>43925</v>
       </c>
@@ -1904,7 +1926,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="37">
       <c r="A37" s="1">
         <v>43926</v>
       </c>
@@ -1945,7 +1967,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="38">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
@@ -1986,7 +2008,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="39">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
@@ -2027,7 +2049,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="40">
       <c r="A40" s="1">
         <v>43929</v>
       </c>
@@ -2068,7 +2090,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="41">
       <c r="A41" s="1">
         <v>43930</v>
       </c>
@@ -2109,7 +2131,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="42">
       <c r="A42" s="1">
         <v>43931</v>
       </c>
@@ -2150,7 +2172,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="43">
       <c r="A43" s="1">
         <v>43932</v>
       </c>
@@ -2191,7 +2213,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="44">
       <c r="A44" s="1">
         <v>43933</v>
       </c>
@@ -2232,7 +2254,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="45">
       <c r="A45" s="1">
         <v>43934</v>
       </c>
@@ -2273,7 +2295,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="46">
       <c r="A46" s="1">
         <v>43935</v>
       </c>
@@ -2314,7 +2336,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="47">
       <c r="A47" s="1">
         <v>43936</v>
       </c>
@@ -2355,7 +2377,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="48">
       <c r="A48" s="1">
         <v>43937</v>
       </c>
@@ -2396,7 +2418,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="49">
       <c r="A49" s="1">
         <v>43938</v>
       </c>
@@ -2437,7 +2459,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="50">
       <c r="A50" s="1">
         <v>43939</v>
       </c>
@@ -2478,7 +2500,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="51">
       <c r="A51" s="1">
         <v>43940</v>
       </c>
@@ -2519,7 +2541,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="52">
       <c r="A52" s="1">
         <v>43941</v>
       </c>
@@ -2560,7 +2582,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="53">
       <c r="A53" s="1">
         <v>43942</v>
       </c>
@@ -2601,7 +2623,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="54">
       <c r="A54" s="1">
         <v>43943</v>
       </c>
@@ -2642,7 +2664,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="55">
       <c r="A55" s="1">
         <v>43944</v>
       </c>
@@ -2683,7 +2705,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="56">
       <c r="A56" s="1">
         <v>43945</v>
       </c>
@@ -2724,7 +2746,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="57">
       <c r="A57" s="1">
         <v>43946</v>
       </c>
@@ -2765,7 +2787,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="58">
       <c r="A58" s="1">
         <v>43947</v>
       </c>
@@ -2806,7 +2828,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="59">
       <c r="A59" s="1">
         <v>43948</v>
       </c>
@@ -2847,7 +2869,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="60">
       <c r="A60" s="1">
         <v>43949</v>
       </c>
@@ -2888,7 +2910,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="61">
       <c r="A61" s="1">
         <v>43950</v>
       </c>
@@ -2929,7 +2951,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="62">
       <c r="A62" s="1">
         <v>43951</v>
       </c>
@@ -2970,7 +2992,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="63">
       <c r="A63" s="1">
         <v>43952</v>
       </c>
@@ -3011,7 +3033,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="64">
       <c r="A64" s="1">
         <v>43953</v>
       </c>
@@ -3052,7 +3074,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="65">
       <c r="A65" s="1">
         <v>43954</v>
       </c>
@@ -3093,7 +3115,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="66">
       <c r="A66" s="1">
         <v>43955</v>
       </c>
@@ -3134,7 +3156,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="67">
       <c r="A67" s="1">
         <v>43956</v>
       </c>
@@ -3175,7 +3197,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="68">
       <c r="A68" s="1">
         <v>43957</v>
       </c>
@@ -3216,7 +3238,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="69">
       <c r="A69" s="1">
         <v>43958</v>
       </c>
@@ -3257,7 +3279,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="70">
       <c r="A70" s="1">
         <v>43959</v>
       </c>
@@ -3298,7 +3320,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="71">
       <c r="A71" s="1">
         <v>43960</v>
       </c>
@@ -3339,7 +3361,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="72">
       <c r="A72" s="1">
         <v>43961</v>
       </c>
@@ -3380,7 +3402,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="73">
       <c r="A73" s="1">
         <v>43962</v>
       </c>
@@ -3421,7 +3443,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="74">
       <c r="A74" s="1">
         <v>43963</v>
       </c>
@@ -3462,7 +3484,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="75">
       <c r="A75" s="1">
         <v>43964</v>
       </c>
@@ -3503,7 +3525,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="76">
       <c r="A76" s="1">
         <v>43965</v>
       </c>
@@ -3544,7 +3566,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="77">
       <c r="A77" s="1">
         <v>43966</v>
       </c>
@@ -3585,7 +3607,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="78">
       <c r="A78" s="1">
         <v>43967</v>
       </c>
@@ -3626,7 +3648,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="79">
       <c r="A79" s="1">
         <v>43968</v>
       </c>
@@ -3667,7 +3689,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="80">
       <c r="A80" s="1">
         <v>43969</v>
       </c>
@@ -3708,7 +3730,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="81">
       <c r="A81" s="1">
         <v>43970</v>
       </c>
@@ -3749,7 +3771,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="82">
       <c r="A82" s="1">
         <v>43971</v>
       </c>
@@ -3790,7 +3812,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="83">
       <c r="A83" s="1">
         <v>43972</v>
       </c>
@@ -3831,7 +3853,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="84">
       <c r="A84" s="1">
         <v>43973</v>
       </c>
@@ -3872,7 +3894,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="85">
       <c r="A85" s="1">
         <v>43974</v>
       </c>
@@ -3913,7 +3935,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="86">
       <c r="A86" s="1">
         <v>43975</v>
       </c>
@@ -3954,7 +3976,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="87">
       <c r="A87" s="1">
         <v>43976</v>
       </c>
@@ -3995,7 +4017,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="88">
       <c r="A88" s="1">
         <v>43977</v>
       </c>
@@ -4036,7 +4058,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="89">
       <c r="A89" s="1">
         <v>43978</v>
       </c>
@@ -4077,7 +4099,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="90">
       <c r="A90" s="1">
         <v>43979</v>
       </c>
@@ -4118,7 +4140,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="91">
       <c r="A91" s="1">
         <v>43980</v>
       </c>
@@ -4159,7 +4181,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="92">
       <c r="A92" s="1">
         <v>43981</v>
       </c>
@@ -4200,7 +4222,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="93">
       <c r="A93" s="1">
         <v>43982</v>
       </c>
@@ -4241,7 +4263,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="94">
       <c r="A94" s="1">
         <v>43983</v>
       </c>
@@ -4282,7 +4304,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="95">
       <c r="A95" s="1">
         <v>43984</v>
       </c>
@@ -4323,7 +4345,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="96">
       <c r="A96" s="1">
         <v>43985</v>
       </c>
@@ -4364,7 +4386,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="97">
       <c r="A97" s="1">
         <v>43986</v>
       </c>
@@ -4405,7 +4427,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="98">
       <c r="A98" s="1">
         <v>43987</v>
       </c>
@@ -4446,7 +4468,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="99">
       <c r="A99" s="1">
         <v>43988</v>
       </c>
@@ -4487,7 +4509,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="100">
       <c r="A100" s="1">
         <v>43989</v>
       </c>
@@ -4528,7 +4550,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="101">
       <c r="A101" s="1">
         <v>43990</v>
       </c>
@@ -4569,7 +4591,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="102">
       <c r="A102" s="1">
         <v>43991</v>
       </c>
@@ -4610,7 +4632,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="103">
       <c r="A103" s="1">
         <v>43992</v>
       </c>
@@ -4651,7 +4673,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="104">
       <c r="A104" s="1">
         <v>43993</v>
       </c>
@@ -4692,7 +4714,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="105">
       <c r="A105" s="1">
         <v>43994</v>
       </c>
@@ -4733,7 +4755,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="106">
       <c r="A106" s="1">
         <v>43995</v>
       </c>
@@ -4774,7 +4796,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="107">
       <c r="A107" s="1">
         <v>43996</v>
       </c>
@@ -4815,7 +4837,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="108">
       <c r="A108" s="1">
         <v>43997</v>
       </c>
@@ -4856,7 +4878,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="109">
       <c r="A109" s="1">
         <v>43998</v>
       </c>
@@ -4897,7 +4919,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="110">
       <c r="A110" s="1">
         <v>43999</v>
       </c>
@@ -4938,7 +4960,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="111">
       <c r="A111" s="1">
         <v>44000</v>
       </c>
@@ -4979,7 +5001,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="112">
       <c r="A112" s="1">
         <v>44001</v>
       </c>
@@ -5020,7 +5042,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="113">
       <c r="A113" s="1">
         <v>44002</v>
       </c>
@@ -5061,7 +5083,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="114">
       <c r="A114" s="1">
         <v>44003</v>
       </c>
@@ -5102,7 +5124,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="115">
       <c r="A115" s="1">
         <v>44004</v>
       </c>
@@ -5143,7 +5165,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="116">
       <c r="A116" s="1">
         <v>44005</v>
       </c>
@@ -5184,7 +5206,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="117">
       <c r="A117" s="1">
         <v>44006</v>
       </c>
@@ -5225,7 +5247,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="118">
       <c r="A118" s="1">
         <v>44007</v>
       </c>
@@ -5266,7 +5288,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="119">
       <c r="A119" s="1">
         <v>44008</v>
       </c>
@@ -5307,7 +5329,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="120">
       <c r="A120" s="1">
         <v>44009</v>
       </c>
@@ -5348,7 +5370,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="121">
       <c r="A121" s="1">
         <v>44010</v>
       </c>
@@ -5389,7 +5411,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="122">
       <c r="A122" s="1">
         <v>44011</v>
       </c>
@@ -5430,7 +5452,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="123">
       <c r="A123" s="1">
         <v>44012</v>
       </c>
@@ -5471,7 +5493,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="124">
       <c r="A124" s="1">
         <v>44013</v>
       </c>
@@ -5512,7 +5534,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="125">
       <c r="A125" s="1">
         <v>44014</v>
       </c>
@@ -5553,7 +5575,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="126">
       <c r="A126" s="1">
         <v>44015</v>
       </c>
@@ -5594,7 +5616,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="127">
       <c r="A127" s="1">
         <v>44016</v>
       </c>
@@ -5635,7 +5657,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="128">
       <c r="A128" s="1">
         <v>44017</v>
       </c>
@@ -5676,7 +5698,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="129">
       <c r="A129" s="1">
         <v>44018</v>
       </c>
@@ -5717,7 +5739,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="130">
       <c r="A130" s="1">
         <v>44019</v>
       </c>
@@ -5758,7 +5780,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="131">
       <c r="A131" s="1">
         <v>44020</v>
       </c>
@@ -5799,7 +5821,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="132">
       <c r="A132" s="1">
         <v>44021</v>
       </c>
@@ -5840,7 +5862,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="133">
       <c r="A133" s="1">
         <v>44022</v>
       </c>
@@ -5881,7 +5903,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="134">
       <c r="A134" s="1">
         <v>44023</v>
       </c>
@@ -5922,7 +5944,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="135">
       <c r="A135" s="1">
         <v>44024</v>
       </c>
@@ -5963,7 +5985,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="136">
       <c r="A136" s="1">
         <v>44025</v>
       </c>
@@ -6004,7 +6026,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="137">
       <c r="A137" s="1">
         <v>44026</v>
       </c>
@@ -6045,7 +6067,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="138">
       <c r="A138" s="1">
         <v>44027</v>
       </c>
@@ -6086,7 +6108,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="139">
       <c r="A139" s="1">
         <v>44028</v>
       </c>
@@ -6127,7 +6149,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="140">
       <c r="A140" s="1">
         <v>44029</v>
       </c>
@@ -6168,7 +6190,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="141">
       <c r="A141" s="1">
         <v>44030</v>
       </c>
@@ -6209,7 +6231,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="142">
       <c r="A142" s="1">
         <v>44031</v>
       </c>
@@ -6250,7 +6272,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="143">
       <c r="A143" s="1">
         <v>44032</v>
       </c>
@@ -6291,7 +6313,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="144">
       <c r="A144" s="1">
         <v>44033</v>
       </c>
@@ -6332,7 +6354,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="145">
       <c r="A145" s="1">
         <v>44034</v>
       </c>
@@ -6373,7 +6395,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="146">
       <c r="A146" s="1">
         <v>44035</v>
       </c>
@@ -6414,7 +6436,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="147">
       <c r="A147" s="1">
         <v>44036</v>
       </c>
@@ -6455,7 +6477,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="148">
       <c r="A148" s="1">
         <v>44037</v>
       </c>
@@ -6496,7 +6518,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="149">
       <c r="A149" s="1">
         <v>44038</v>
       </c>
@@ -6537,7 +6559,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="150">
       <c r="A150" s="1">
         <v>44039</v>
       </c>
@@ -6578,7 +6600,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="151">
       <c r="A151" s="1">
         <v>44040</v>
       </c>
@@ -6619,7 +6641,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="152">
       <c r="A152" s="1">
         <v>44041</v>
       </c>
@@ -6660,7 +6682,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="153">
       <c r="A153" s="1">
         <v>44042</v>
       </c>
@@ -6701,7 +6723,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="154">
       <c r="A154" s="1">
         <v>44043</v>
       </c>
@@ -6742,7 +6764,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="155">
       <c r="A155" s="1">
         <v>44044</v>
       </c>
@@ -6783,7 +6805,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="156">
       <c r="A156" s="1">
         <v>44045</v>
       </c>
@@ -6824,7 +6846,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="157">
       <c r="A157" s="1">
         <v>44046</v>
       </c>
@@ -6865,7 +6887,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="158">
       <c r="A158" s="1">
         <v>44047</v>
       </c>
@@ -6906,7 +6928,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="159">
       <c r="A159" s="1">
         <v>44048</v>
       </c>
@@ -6947,7 +6969,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="160">
       <c r="A160" s="1">
         <v>44049</v>
       </c>
@@ -6988,7 +7010,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="161">
       <c r="A161" s="1">
         <v>44050</v>
       </c>
@@ -7029,7 +7051,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="162">
       <c r="A162" s="1">
         <v>44051</v>
       </c>
@@ -7070,7 +7092,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="163">
       <c r="A163" s="1">
         <v>44052</v>
       </c>
@@ -7111,7 +7133,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="164">
       <c r="A164" s="1">
         <v>44053</v>
       </c>
@@ -7152,7 +7174,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="165">
       <c r="A165" s="1">
         <v>44054</v>
       </c>
@@ -7193,7 +7215,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="166">
       <c r="A166" s="1">
         <v>44055</v>
       </c>
@@ -7234,7 +7256,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="167">
       <c r="A167" s="1">
         <v>44056</v>
       </c>
@@ -7275,7 +7297,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="168">
       <c r="A168" s="1">
         <v>44057</v>
       </c>
@@ -7316,7 +7338,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="169">
       <c r="A169" s="1">
         <v>44058</v>
       </c>
@@ -7357,7 +7379,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="170">
       <c r="A170" s="1">
         <v>44059</v>
       </c>
@@ -7398,7 +7420,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="171">
       <c r="A171" s="1">
         <v>44060</v>
       </c>
@@ -7439,7 +7461,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="172">
       <c r="A172" s="1">
         <v>44061</v>
       </c>
@@ -7480,7 +7502,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="173">
       <c r="A173" s="1">
         <v>44062</v>
       </c>
@@ -7521,7 +7543,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="174">
       <c r="A174" s="1">
         <v>44063</v>
       </c>
@@ -7562,7 +7584,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="175">
       <c r="A175" s="1">
         <v>44064</v>
       </c>
@@ -7603,7 +7625,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="176">
       <c r="A176" s="1">
         <v>44065</v>
       </c>
@@ -7644,7 +7666,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="177">
       <c r="A177" s="1">
         <v>44066</v>
       </c>
@@ -7685,7 +7707,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="178">
       <c r="A178" s="1">
         <v>44067</v>
       </c>
@@ -7726,7 +7748,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="179">
       <c r="A179" s="1">
         <v>44068</v>
       </c>
@@ -7767,7 +7789,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="180">
       <c r="A180" s="1">
         <v>44069</v>
       </c>
@@ -7808,7 +7830,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="181">
       <c r="A181" s="1">
         <v>44070</v>
       </c>
@@ -7849,7 +7871,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="182">
       <c r="A182" s="1">
         <v>44071</v>
       </c>
@@ -7890,7 +7912,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="183">
       <c r="A183" s="1">
         <v>44072</v>
       </c>
@@ -7931,7 +7953,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="184">
       <c r="A184" s="1">
         <v>44073</v>
       </c>
@@ -7972,7 +7994,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="185">
       <c r="A185" s="1">
         <v>44074</v>
       </c>
@@ -8013,7 +8035,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="186">
       <c r="A186" s="1">
         <v>44075</v>
       </c>
@@ -8054,7 +8076,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="187">
       <c r="A187" s="1">
         <v>44076</v>
       </c>
@@ -8095,7 +8117,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="188">
       <c r="A188" s="1">
         <v>44077</v>
       </c>
@@ -8136,7 +8158,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="189">
       <c r="A189" s="1">
         <v>44078</v>
       </c>
@@ -8177,7 +8199,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="190">
       <c r="A190" s="1">
         <v>44079</v>
       </c>
@@ -8218,7 +8240,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="191">
       <c r="A191" s="1">
         <v>44080</v>
       </c>
@@ -8259,7 +8281,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="192">
       <c r="A192" s="1">
         <v>44081</v>
       </c>
@@ -8300,7 +8322,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="193">
       <c r="A193" s="1">
         <v>44082</v>
       </c>
@@ -8341,7 +8363,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="194">
       <c r="A194" s="1">
         <v>44083</v>
       </c>
@@ -8382,7 +8404,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="195">
       <c r="A195" s="1">
         <v>44084</v>
       </c>
@@ -8423,7 +8445,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="196">
       <c r="A196" s="1">
         <v>44085</v>
       </c>
@@ -8464,7 +8486,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="197">
       <c r="A197" s="1">
         <v>44086</v>
       </c>
@@ -8505,7 +8527,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="198">
       <c r="A198" s="1">
         <v>44087</v>
       </c>
@@ -8546,7 +8568,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="199">
       <c r="A199" s="1">
         <v>44088</v>
       </c>
@@ -8587,7 +8609,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="200">
       <c r="A200" s="1">
         <v>44089</v>
       </c>
@@ -8628,7 +8650,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="201">
       <c r="A201" s="1">
         <v>44090</v>
       </c>
@@ -8669,7 +8691,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="202">
       <c r="A202" s="1">
         <v>44091</v>
       </c>
@@ -8710,7 +8732,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="203">
       <c r="A203" s="1">
         <v>44092</v>
       </c>
@@ -8751,7 +8773,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="204">
       <c r="A204" s="1">
         <v>44093</v>
       </c>
@@ -8792,7 +8814,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="205">
       <c r="A205" s="1">
         <v>44094</v>
       </c>
@@ -8833,7 +8855,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="206">
       <c r="A206" s="1">
         <v>44095</v>
       </c>
@@ -8874,7 +8896,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="207">
       <c r="A207" s="1">
         <v>44096</v>
       </c>
@@ -8915,7 +8937,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="208">
       <c r="A208" s="1">
         <v>44097</v>
       </c>
@@ -8956,7 +8978,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="209">
       <c r="A209" s="1">
         <v>44098</v>
       </c>
@@ -8997,7 +9019,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="210">
       <c r="A210" s="1">
         <v>44099</v>
       </c>
@@ -9038,7 +9060,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="211">
       <c r="A211" s="1">
         <v>44100</v>
       </c>
@@ -9079,7 +9101,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="212">
       <c r="A212" s="1">
         <v>44101</v>
       </c>
@@ -9120,7 +9142,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="213">
       <c r="A213" s="1">
         <v>44102</v>
       </c>
@@ -9161,7 +9183,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="214">
       <c r="A214" s="1">
         <v>44103</v>
       </c>
@@ -9202,7 +9224,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="215">
       <c r="A215" s="1">
         <v>44104</v>
       </c>
@@ -9243,7 +9265,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="216">
       <c r="A216" s="1">
         <v>44105</v>
       </c>
@@ -9284,7 +9306,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="217">
       <c r="A217" s="1">
         <v>44106</v>
       </c>
@@ -9325,7 +9347,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="218">
       <c r="A218" s="1">
         <v>44107</v>
       </c>
@@ -9366,7 +9388,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="219">
       <c r="A219" s="1">
         <v>44108</v>
       </c>
@@ -9407,7 +9429,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="220">
       <c r="A220" s="1">
         <v>44109</v>
       </c>
@@ -9448,7 +9470,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="221">
       <c r="A221" s="1">
         <v>44110</v>
       </c>
@@ -9489,7 +9511,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="222">
       <c r="A222" s="1">
         <v>44111</v>
       </c>
@@ -9530,7 +9552,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="223">
       <c r="A223" s="1">
         <v>44112</v>
       </c>
@@ -9571,7 +9593,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="224">
       <c r="A224" s="1">
         <v>44113</v>
       </c>
@@ -9612,7 +9634,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="225">
       <c r="A225" s="1">
         <v>44114</v>
       </c>
@@ -9653,7 +9675,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="226">
       <c r="A226" s="1">
         <v>44115</v>
       </c>
@@ -9694,7 +9716,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="227">
       <c r="A227" s="1">
         <v>44116</v>
       </c>
@@ -9735,7 +9757,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="228">
       <c r="A228" s="1">
         <v>44117</v>
       </c>
@@ -9776,7 +9798,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="229">
       <c r="A229" s="1">
         <v>44118</v>
       </c>
@@ -9817,7 +9839,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="230">
       <c r="A230" s="1">
         <v>44119</v>
       </c>
@@ -9858,7 +9880,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="231">
       <c r="A231" s="1">
         <v>44120</v>
       </c>
@@ -9899,7 +9921,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="232">
       <c r="A232" s="1">
         <v>44121</v>
       </c>
@@ -9940,7 +9962,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="233">
       <c r="A233" s="1">
         <v>44122</v>
       </c>
@@ -9981,7 +10003,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="234">
       <c r="A234" s="1">
         <v>44123</v>
       </c>
@@ -10022,7 +10044,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="235">
       <c r="A235" s="1">
         <v>44124</v>
       </c>
@@ -10063,7 +10085,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="236">
       <c r="A236" s="1">
         <v>44125</v>
       </c>
@@ -10104,7 +10126,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="237">
       <c r="A237" s="1">
         <v>44126</v>
       </c>
@@ -10145,7 +10167,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="238">
       <c r="A238" s="1">
         <v>44127</v>
       </c>
@@ -10186,7 +10208,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="239">
       <c r="A239" s="1">
         <v>44128</v>
       </c>
@@ -10227,7 +10249,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="240">
       <c r="A240" s="1">
         <v>44129</v>
       </c>
@@ -10268,7 +10290,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="241">
       <c r="A241" s="1">
         <v>44130</v>
       </c>
@@ -10309,7 +10331,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="242">
       <c r="A242" s="1">
         <v>44131</v>
       </c>
@@ -10350,7 +10372,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="243">
       <c r="A243" s="1">
         <v>44132</v>
       </c>
@@ -10391,7 +10413,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="244">
       <c r="A244" s="1">
         <v>44133</v>
       </c>
@@ -10432,7 +10454,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="245">
       <c r="A245" s="1">
         <v>44134</v>
       </c>
@@ -10473,7 +10495,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="246">
       <c r="A246" s="1">
         <v>44135</v>
       </c>
@@ -10514,7 +10536,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="247">
       <c r="A247" s="1">
         <v>44136</v>
       </c>
@@ -10555,7 +10577,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="248">
       <c r="A248" s="1">
         <v>44137</v>
       </c>
@@ -10596,7 +10618,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="249">
       <c r="A249" s="1">
         <v>44138</v>
       </c>
@@ -10637,7 +10659,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="250">
       <c r="A250" s="1">
         <v>44139</v>
       </c>
@@ -10678,7 +10700,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="251">
       <c r="A251" s="1">
         <v>44140</v>
       </c>
@@ -10719,7 +10741,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="252">
       <c r="A252" s="1">
         <v>44141</v>
       </c>
@@ -10760,7 +10782,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="253">
       <c r="A253" s="1">
         <v>44142</v>
       </c>
@@ -10801,7 +10823,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="254">
       <c r="A254" s="1">
         <v>44143</v>
       </c>
@@ -10842,7 +10864,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="255">
       <c r="A255" s="1">
         <v>44144</v>
       </c>
@@ -10883,7 +10905,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="256">
       <c r="A256" s="1">
         <v>44145</v>
       </c>
@@ -10924,7 +10946,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="257">
       <c r="A257" s="1">
         <v>44146</v>
       </c>
@@ -10965,7 +10987,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="258">
       <c r="A258" s="1">
         <v>44147</v>
       </c>
@@ -11006,7 +11028,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="259">
       <c r="A259" s="1">
         <v>44148</v>
       </c>
@@ -11047,7 +11069,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="260">
       <c r="A260" s="1">
         <v>44149</v>
       </c>
@@ -11088,7 +11110,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="261">
       <c r="A261" s="1">
         <v>44150</v>
       </c>
@@ -11129,7 +11151,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="262">
       <c r="A262" s="1">
         <v>44151</v>
       </c>
@@ -11170,7 +11192,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="263">
       <c r="A263" s="1">
         <v>44152</v>
       </c>
@@ -11211,7 +11233,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="264">
       <c r="A264" s="1">
         <v>44153</v>
       </c>
@@ -11252,7 +11274,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="265">
       <c r="A265" s="1">
         <v>44154</v>
       </c>
@@ -11293,7 +11315,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="266">
       <c r="A266" s="1">
         <v>44155</v>
       </c>
@@ -11334,7 +11356,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="267">
       <c r="A267" s="1">
         <v>44156</v>
       </c>
@@ -11375,7 +11397,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="268">
       <c r="A268" s="1">
         <v>44157</v>
       </c>
@@ -11416,7 +11438,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="269">
       <c r="A269" s="1">
         <v>44158</v>
       </c>
@@ -11457,7 +11479,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="270">
       <c r="A270" s="1">
         <v>44159</v>
       </c>
@@ -11498,7 +11520,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="271">
       <c r="A271" s="1">
         <v>44160</v>
       </c>
@@ -11539,7 +11561,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="272">
       <c r="A272" s="1">
         <v>44161</v>
       </c>
@@ -11580,7 +11602,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="273">
       <c r="A273" s="1">
         <v>44162</v>
       </c>
@@ -11621,7 +11643,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="274">
       <c r="A274" s="1">
         <v>44163</v>
       </c>
@@ -11662,7 +11684,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="275">
       <c r="A275" s="1">
         <v>44164</v>
       </c>
@@ -11703,7 +11725,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="276">
       <c r="A276" s="1">
         <v>44165</v>
       </c>
@@ -11744,7 +11766,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="277">
       <c r="A277" s="1">
         <v>44166</v>
       </c>
@@ -11785,7 +11807,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="278">
       <c r="A278" s="1">
         <v>44167</v>
       </c>
@@ -11826,7 +11848,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="279">
       <c r="A279" s="1">
         <v>44168</v>
       </c>
@@ -11867,7 +11889,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="280">
       <c r="A280" s="1">
         <v>44169</v>
       </c>
@@ -11908,7 +11930,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="281">
       <c r="A281" s="1">
         <v>44170</v>
       </c>
@@ -11949,7 +11971,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="282">
       <c r="A282" s="1">
         <v>44171</v>
       </c>
@@ -11990,7 +12012,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="283">
       <c r="A283" s="1">
         <v>44172</v>
       </c>
@@ -12031,7 +12053,7 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="284">
       <c r="A284" s="1">
         <v>44173</v>
       </c>
@@ -12072,7 +12094,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="285">
       <c r="A285" s="1">
         <v>44174</v>
       </c>
@@ -12113,7 +12135,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="286">
       <c r="A286" s="1">
         <v>44175</v>
       </c>
@@ -12154,7 +12176,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="287">
       <c r="A287" s="1">
         <v>44176</v>
       </c>
@@ -12195,7 +12217,7 @@
         <v>4719</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="288">
       <c r="A288" s="1">
         <v>44177</v>
       </c>
@@ -12236,7 +12258,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="289">
       <c r="A289" s="1">
         <v>44178</v>
       </c>
@@ -12277,7 +12299,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="290">
       <c r="A290" s="1">
         <v>44179</v>
       </c>
@@ -12318,7 +12340,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="291">
       <c r="A291" s="1">
         <v>44180</v>
       </c>
@@ -12359,7 +12381,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="292">
       <c r="A292" s="1">
         <v>44181</v>
       </c>
@@ -12400,7 +12422,7 @@
         <v>4931</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="293">
       <c r="A293" s="1">
         <v>44182</v>
       </c>
@@ -12441,7 +12463,7 @@
         <v>4975</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="294">
       <c r="A294" s="1">
         <v>44183</v>
       </c>
@@ -12482,7 +12504,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="295">
       <c r="A295" s="1">
         <v>44184</v>
       </c>
@@ -12523,7 +12545,7 @@
         <v>5036</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="296">
       <c r="A296" s="1">
         <v>44185</v>
       </c>
@@ -12564,7 +12586,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="297">
       <c r="A297" s="1">
         <v>44186</v>
       </c>
@@ -12605,7 +12627,7 @@
         <v>5080</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="298">
       <c r="A298" s="1">
         <v>44187</v>
       </c>
@@ -12646,7 +12668,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="299">
       <c r="A299" s="1">
         <v>44188</v>
       </c>
@@ -12687,7 +12709,7 @@
         <v>5133</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="300">
       <c r="A300" s="1">
         <v>44189</v>
       </c>
@@ -12728,7 +12750,7 @@
         <v>5166</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="301">
       <c r="A301" s="1">
         <v>44190</v>
       </c>
@@ -12769,7 +12791,7 @@
         <v>5188</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="302">
       <c r="A302" s="1">
         <v>44191</v>
       </c>
@@ -12810,7 +12832,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="303">
       <c r="A303" s="1">
         <v>44192</v>
       </c>
@@ -12851,7 +12873,7 @@
         <v>5236</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="304">
       <c r="A304" s="1">
         <v>44193</v>
       </c>
@@ -12892,7 +12914,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="305">
       <c r="A305" s="1">
         <v>44194</v>
       </c>
@@ -12933,7 +12955,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="306">
       <c r="A306" s="1">
         <v>44195</v>
       </c>
@@ -12974,7 +12996,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="307">
       <c r="A307" s="1">
         <v>44196</v>
       </c>
@@ -13015,7 +13037,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="308">
       <c r="A308" s="1">
         <v>44197</v>
       </c>
@@ -13056,7 +13078,7 @@
         <v>5354</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="309">
       <c r="A309" s="1">
         <v>44198</v>
       </c>
@@ -13097,7 +13119,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="310">
       <c r="A310" s="1">
         <v>44199</v>
       </c>
@@ -13138,7 +13160,7 @@
         <v>5388</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="311">
       <c r="A311" s="1">
         <v>44200</v>
       </c>
@@ -13179,7 +13201,7 @@
         <v>5416</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="312">
       <c r="A312" s="1">
         <v>44201</v>
       </c>
@@ -13220,7 +13242,7 @@
         <v>5426</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="313">
       <c r="A313" s="1">
         <v>44202</v>
       </c>
@@ -13261,7 +13283,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="314">
       <c r="A314" s="1">
         <v>44203</v>
       </c>
@@ -13302,7 +13324,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="315">
       <c r="A315" s="1">
         <v>44204</v>
       </c>
@@ -13343,7 +13365,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="316">
       <c r="A316" s="1">
         <v>44205</v>
       </c>
@@ -13384,7 +13406,7 @@
         <v>5525</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="317">
       <c r="A317" s="1">
         <v>44206</v>
       </c>
@@ -13425,7 +13447,7 @@
         <v>5541</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="318">
       <c r="A318" s="1">
         <v>44207</v>
       </c>
@@ -13466,7 +13488,7 @@
         <v>5567</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="319">
       <c r="A319" s="1">
         <v>44208</v>
       </c>
@@ -13507,7 +13529,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="320">
       <c r="A320" s="1">
         <v>44209</v>
       </c>
@@ -13548,7 +13570,7 @@
         <v>5617</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="321">
       <c r="A321" s="1">
         <v>44210</v>
       </c>
@@ -13589,7 +13611,7 @@
         <v>5638</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="322">
       <c r="A322" s="1">
         <v>44211</v>
       </c>
@@ -13630,7 +13652,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="323">
       <c r="A323" s="1">
         <v>44212</v>
       </c>
@@ -13671,7 +13693,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="324">
       <c r="A324" s="1">
         <v>44213</v>
       </c>
@@ -13712,7 +13734,7 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="325">
       <c r="A325" s="1">
         <v>44214</v>
       </c>
@@ -13753,7 +13775,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="326">
       <c r="A326" s="1">
         <v>44215</v>
       </c>
@@ -13794,7 +13816,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="327">
       <c r="A327" s="1">
         <v>44216</v>
       </c>
@@ -13835,7 +13857,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="328">
       <c r="A328" s="1">
         <v>44217</v>
       </c>
@@ -13876,7 +13898,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="329">
       <c r="A329" s="1">
         <v>44218</v>
       </c>
@@ -13917,7 +13939,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="330">
       <c r="A330" s="1">
         <v>44219</v>
       </c>
@@ -13958,7 +13980,7 @@
         <v>5786</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="331">
       <c r="A331" s="1">
         <v>44220</v>
       </c>
@@ -13999,7 +14021,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="332">
       <c r="A332" s="1">
         <v>44221</v>
       </c>
@@ -14040,7 +14062,7 @@
         <v>5809</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="333">
       <c r="A333" s="1">
         <v>44222</v>
       </c>
@@ -14081,7 +14103,7 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="334">
       <c r="A334" s="1">
         <v>44223</v>
       </c>
@@ -14122,7 +14144,7 @@
         <v>5834</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="335">
       <c r="A335" s="1">
         <v>44224</v>
       </c>
@@ -14163,7 +14185,7 @@
         <v>5842</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="336">
       <c r="A336" s="1">
         <v>44225</v>
       </c>
@@ -14204,7 +14226,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="337">
       <c r="A337" s="1">
         <v>44226</v>
       </c>
@@ -14245,7 +14267,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="338">
       <c r="A338" s="1">
         <v>44227</v>
       </c>
@@ -14286,7 +14308,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="339">
       <c r="A339" s="1">
         <v>44228</v>
       </c>
@@ -14327,7 +14349,7 @@
         <v>5871</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="340">
       <c r="A340" s="1">
         <v>44229</v>
       </c>
@@ -14368,7 +14390,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="341">
       <c r="A341" s="1">
         <v>44230</v>
       </c>
@@ -14409,7 +14431,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="342">
       <c r="A342" s="1">
         <v>44231</v>
       </c>
@@ -14450,7 +14472,7 @@
         <v>5915</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="343">
       <c r="A343" s="1">
         <v>44232</v>
       </c>
@@ -14491,7 +14513,7 @@
         <v>5921</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="344">
       <c r="A344" s="1">
         <v>44233</v>
       </c>
@@ -14532,7 +14554,7 @@
         <v>5929</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="345">
       <c r="A345" s="1">
         <v>44234</v>
       </c>
@@ -14573,7 +14595,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="346">
       <c r="A346" s="1">
         <v>44235</v>
       </c>
@@ -14614,7 +14636,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="347">
       <c r="A347" s="1">
         <v>44236</v>
       </c>
@@ -14655,7 +14677,7 @@
         <v>5945</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="348">
       <c r="A348" s="1">
         <v>44237</v>
       </c>
@@ -14696,7 +14718,7 @@
         <v>5958</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="349">
       <c r="A349" s="1">
         <v>44238</v>
       </c>
@@ -14737,7 +14759,7 @@
         <v>5961</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="350">
       <c r="A350" s="1">
         <v>44239</v>
       </c>
@@ -14778,7 +14800,7 @@
         <v>5966</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="351">
       <c r="A351" s="1">
         <v>44240</v>
       </c>
@@ -14819,7 +14841,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="352">
       <c r="A352" s="1">
         <v>44241</v>
       </c>
@@ -14860,7 +14882,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="353">
       <c r="A353" s="1">
         <v>44242</v>
       </c>
@@ -14901,7 +14923,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="354">
       <c r="A354" s="1">
         <v>44243</v>
       </c>
@@ -14942,7 +14964,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="355">
       <c r="A355" s="1">
         <v>44244</v>
       </c>
@@ -14983,7 +15005,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="356">
       <c r="A356" s="1">
         <v>44245</v>
       </c>
@@ -15024,7 +15046,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="357">
       <c r="A357" s="1">
         <v>44246</v>
       </c>
@@ -15065,7 +15087,7 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="358">
       <c r="A358" s="1">
         <v>44247</v>
       </c>
@@ -15106,7 +15128,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="359">
       <c r="A359" s="1">
         <v>44248</v>
       </c>
@@ -15147,7 +15169,7 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="360">
       <c r="A360" s="1">
         <v>44249</v>
       </c>
@@ -15188,7 +15210,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="361">
       <c r="A361" s="1">
         <v>44250</v>
       </c>
@@ -15229,7 +15251,7 @@
         <v>6027</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="362">
       <c r="A362" s="1">
         <v>44251</v>
       </c>
@@ -15270,7 +15292,7 @@
         <v>6030</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="363">
       <c r="A363" s="1">
         <v>44252</v>
       </c>
@@ -15311,7 +15333,7 @@
         <v>6040</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="364">
       <c r="A364" s="1">
         <v>44253</v>
       </c>
@@ -15352,7 +15374,7 @@
         <v>6044</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="365">
       <c r="A365" s="1">
         <v>44254</v>
       </c>
@@ -15393,7 +15415,7 @@
         <v>6046</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="366">
       <c r="A366" s="1">
         <v>44255</v>
       </c>
@@ -15434,7 +15456,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="367">
       <c r="A367" s="1">
         <v>44256</v>
       </c>
@@ -15475,7 +15497,7 @@
         <v>6055</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="368">
       <c r="A368" s="1">
         <v>44257</v>
       </c>
@@ -15516,7 +15538,7 @@
         <v>6058</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="369">
       <c r="A369" s="1">
         <v>44258</v>
       </c>
@@ -15557,7 +15579,7 @@
         <v>6066</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="370">
       <c r="A370" s="1">
         <v>44259</v>
       </c>
@@ -15598,7 +15620,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="371">
       <c r="A371" s="1">
         <v>44260</v>
       </c>
@@ -15639,7 +15661,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="372">
       <c r="A372" s="1">
         <v>44261</v>
       </c>
@@ -15680,7 +15702,7 @@
         <v>6081</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="373">
       <c r="A373" s="1">
         <v>44262</v>
       </c>
@@ -15721,7 +15743,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="374">
       <c r="A374" s="1">
         <v>44263</v>
       </c>
@@ -15762,7 +15784,7 @@
         <v>6087</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="375">
       <c r="A375" s="1">
         <v>44264</v>
       </c>
@@ -15803,7 +15825,7 @@
         <v>6095</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="376">
       <c r="A376" s="1">
         <v>44265</v>
       </c>
@@ -15844,7 +15866,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="377">
       <c r="A377" s="1">
         <v>44266</v>
       </c>
@@ -15885,7 +15907,7 @@
         <v>6109</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="378">
       <c r="A378" s="1">
         <v>44267</v>
       </c>
@@ -15926,7 +15948,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="379">
       <c r="A379" s="1">
         <v>44268</v>
       </c>
@@ -15967,7 +15989,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="380">
       <c r="A380" s="1">
         <v>44269</v>
       </c>
@@ -16008,7 +16030,7 @@
         <v>6122</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="381">
       <c r="A381" s="1">
         <v>44270</v>
       </c>
@@ -16049,7 +16071,7 @@
         <v>6125</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="382">
       <c r="A382" s="1">
         <v>44271</v>
       </c>
@@ -16090,7 +16112,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="383">
       <c r="A383" s="1">
         <v>44272</v>
       </c>
@@ -16131,7 +16153,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="384">
       <c r="A384" s="1">
         <v>44273</v>
       </c>
@@ -16172,7 +16194,7 @@
         <v>6142</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="385">
       <c r="A385" s="1">
         <v>44274</v>
       </c>
@@ -16213,7 +16235,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="386">
       <c r="A386" s="1">
         <v>44275</v>
       </c>
@@ -16254,7 +16276,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="387">
       <c r="A387" s="1">
         <v>44276</v>
       </c>
@@ -16295,7 +16317,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="388">
       <c r="A388" s="1">
         <v>44277</v>
       </c>
@@ -16336,7 +16358,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="389">
       <c r="A389" s="1">
         <v>44278</v>
       </c>
@@ -16377,7 +16399,7 @@
         <v>6154</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="390">
       <c r="A390" s="1">
         <v>44279</v>
       </c>
@@ -16418,7 +16440,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="391">
       <c r="A391" s="1">
         <v>44280</v>
       </c>
@@ -16459,7 +16481,7 @@
         <v>6166</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="392">
       <c r="A392" s="1">
         <v>44281</v>
       </c>
@@ -16500,7 +16522,7 @@
         <v>6168</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="393">
       <c r="A393" s="1">
         <v>44282</v>
       </c>
@@ -16541,7 +16563,7 @@
         <v>6173</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="394">
       <c r="A394" s="1">
         <v>44283</v>
       </c>
@@ -16582,7 +16604,7 @@
         <v>6174</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="395">
       <c r="A395" s="1">
         <v>44284</v>
       </c>
@@ -16623,7 +16645,7 @@
         <v>6181</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="396">
       <c r="A396" s="1">
         <v>44285</v>
       </c>
@@ -16664,7 +16686,7 @@
         <v>6189</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="397">
       <c r="A397" s="1">
         <v>44286</v>
       </c>
@@ -16705,7 +16727,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="398">
       <c r="A398" s="1">
         <v>44287</v>
       </c>
@@ -16746,7 +16768,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="399">
       <c r="A399" s="1">
         <v>44288</v>
       </c>
@@ -16787,7 +16809,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="400">
       <c r="A400" s="1">
         <v>44289</v>
       </c>
@@ -16828,7 +16850,7 @@
         <v>6221</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="401">
       <c r="A401" s="1">
         <v>44290</v>
       </c>
@@ -16869,7 +16891,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="402">
       <c r="A402" s="1">
         <v>44291</v>
       </c>
@@ -16910,7 +16932,7 @@
         <v>6231</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="403">
       <c r="A403" s="1">
         <v>44292</v>
       </c>
@@ -16951,7 +16973,7 @@
         <v>6239</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="404">
       <c r="A404" s="1">
         <v>44293</v>
       </c>
@@ -16992,7 +17014,7 @@
         <v>6244</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="405">
       <c r="A405" s="1">
         <v>44294</v>
       </c>
@@ -17033,7 +17055,7 @@
         <v>6254</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="406">
       <c r="A406" s="1">
         <v>44295</v>
       </c>
@@ -17074,7 +17096,7 @@
         <v>6263</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="407">
       <c r="A407" s="1">
         <v>44296</v>
       </c>
@@ -17115,7 +17137,7 @@
         <v>6266</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="408">
       <c r="A408" s="1">
         <v>44297</v>
       </c>
@@ -17156,7 +17178,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="409">
       <c r="A409" s="1">
         <v>44298</v>
       </c>
@@ -17197,7 +17219,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="410">
       <c r="A410" s="1">
         <v>44299</v>
       </c>
@@ -17238,7 +17260,7 @@
         <v>6289</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="411">
       <c r="A411" s="1">
         <v>44300</v>
       </c>
@@ -17279,7 +17301,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="412">
       <c r="A412" s="1">
         <v>44301</v>
       </c>
@@ -17320,7 +17342,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="413">
       <c r="A413" s="1">
         <v>44302</v>
       </c>
@@ -17361,7 +17383,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="414">
       <c r="A414" s="1">
         <v>44303</v>
       </c>
@@ -17402,7 +17424,7 @@
         <v>6327</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="415">
       <c r="A415" s="1">
         <v>44304</v>
       </c>
@@ -17443,7 +17465,7 @@
         <v>6330</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="416">
       <c r="A416" s="1">
         <v>44305</v>
       </c>
@@ -17484,7 +17506,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="417">
       <c r="A417" s="1">
         <v>44306</v>
       </c>
@@ -17525,7 +17547,7 @@
         <v>6350</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="418">
       <c r="A418" s="1">
         <v>44307</v>
       </c>
@@ -17566,7 +17588,7 @@
         <v>6363</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="419">
       <c r="A419" s="1">
         <v>44308</v>
       </c>
@@ -17607,7 +17629,7 @@
         <v>6380</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="420">
       <c r="A420" s="1">
         <v>44309</v>
       </c>
@@ -17648,7 +17670,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="421">
       <c r="A421" s="1">
         <v>44310</v>
       </c>
@@ -17689,7 +17711,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="422">
       <c r="A422" s="1">
         <v>44311</v>
       </c>
@@ -17730,7 +17752,7 @@
         <v>6412</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="423">
       <c r="A423" s="1">
         <v>44312</v>
       </c>
@@ -17771,7 +17793,7 @@
         <v>6418</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="424">
       <c r="A424" s="1">
         <v>44313</v>
       </c>
@@ -17812,7 +17834,7 @@
         <v>6427</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="425">
       <c r="A425" s="1">
         <v>44314</v>
       </c>
@@ -17853,7 +17875,7 @@
         <v>6437</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="426">
       <c r="A426" s="1">
         <v>44315</v>
       </c>
@@ -17894,7 +17916,7 @@
         <v>6444</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="427">
       <c r="A427" s="1">
         <v>44316</v>
       </c>
@@ -17935,7 +17957,7 @@
         <v>6458</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="428">
       <c r="A428" s="1">
         <v>44317</v>
       </c>
@@ -17976,7 +17998,7 @@
         <v>6463</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="429">
       <c r="A429" s="1">
         <v>44318</v>
       </c>
@@ -18017,7 +18039,7 @@
         <v>6465</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="430">
       <c r="A430" s="1">
         <v>44319</v>
       </c>
@@ -18058,7 +18080,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="431">
       <c r="A431" s="1">
         <v>44320</v>
       </c>
@@ -18099,7 +18121,7 @@
         <v>6489</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="432">
       <c r="A432" s="1">
         <v>44321</v>
       </c>
@@ -18140,7 +18162,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="433">
       <c r="A433" s="1">
         <v>44322</v>
       </c>
@@ -18181,7 +18203,7 @@
         <v>6508</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="434">
       <c r="A434" s="1">
         <v>44323</v>
       </c>
@@ -18222,7 +18244,7 @@
         <v>6517</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="435">
       <c r="A435" s="1">
         <v>44324</v>
       </c>
@@ -18263,7 +18285,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="436">
       <c r="A436" s="1">
         <v>44325</v>
       </c>
@@ -18304,7 +18326,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="437">
       <c r="A437" s="1">
         <v>44326</v>
       </c>
@@ -18345,7 +18367,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="438">
       <c r="A438" s="1">
         <v>44327</v>
       </c>
@@ -18386,7 +18408,7 @@
         <v>6562</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="439">
       <c r="A439" s="1">
         <v>44328</v>
       </c>
@@ -18427,7 +18449,7 @@
         <v>6578</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="440">
       <c r="A440" s="1">
         <v>44329</v>
       </c>
@@ -18468,7 +18490,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="441">
       <c r="A441" s="1">
         <v>44330</v>
       </c>
@@ -18509,7 +18531,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="442">
       <c r="A442" s="1">
         <v>44331</v>
       </c>
@@ -18550,7 +18572,7 @@
         <v>6599</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="443">
       <c r="A443" s="1">
         <v>44332</v>
       </c>
@@ -18591,7 +18613,7 @@
         <v>6606</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="444">
       <c r="A444" s="1">
         <v>44333</v>
       </c>
@@ -18632,7 +18654,7 @@
         <v>6615</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="445">
       <c r="A445" s="1">
         <v>44334</v>
       </c>
@@ -18673,7 +18695,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="446">
       <c r="A446" s="1">
         <v>44335</v>
       </c>
@@ -18714,7 +18736,7 @@
         <v>6630</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="447">
       <c r="A447" s="1">
         <v>44336</v>
       </c>
@@ -18755,7 +18777,7 @@
         <v>6638</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="448">
       <c r="A448" s="1">
         <v>44337</v>
       </c>
@@ -18796,7 +18818,7 @@
         <v>6648</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="449">
       <c r="A449" s="1">
         <v>44338</v>
       </c>
@@ -18837,7 +18859,7 @@
         <v>6652</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="450">
       <c r="A450" s="1">
         <v>44339</v>
       </c>
@@ -18878,7 +18900,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="451">
       <c r="A451" s="1">
         <v>44340</v>
       </c>
@@ -18919,7 +18941,7 @@
         <v>6670</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="452">
       <c r="A452" s="1">
         <v>44341</v>
       </c>
@@ -18960,7 +18982,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="453">
       <c r="A453" s="1">
         <v>44342</v>
       </c>
@@ -19001,7 +19023,7 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="454">
       <c r="A454" s="1">
         <v>44343</v>
       </c>
@@ -19042,7 +19064,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="455">
       <c r="A455" s="1">
         <v>44344</v>
       </c>
@@ -19083,7 +19105,7 @@
         <v>6697</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="456">
       <c r="A456" s="1">
         <v>44345</v>
       </c>
@@ -19124,7 +19146,7 @@
         <v>6703</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="457">
       <c r="A457" s="1">
         <v>44346</v>
       </c>
@@ -19165,7 +19187,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="458">
       <c r="A458" s="1">
         <v>44347</v>
       </c>
@@ -19206,7 +19228,7 @@
         <v>6715</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="459">
       <c r="A459" s="1">
         <v>44348</v>
       </c>
@@ -19247,7 +19269,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="460">
       <c r="A460" s="1">
         <v>44349</v>
       </c>
@@ -19288,7 +19310,7 @@
         <v>6732</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="461">
       <c r="A461" s="1">
         <v>44350</v>
       </c>
@@ -19329,7 +19351,7 @@
         <v>6747</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="462">
       <c r="A462" s="1">
         <v>44351</v>
       </c>
@@ -19370,7 +19392,7 @@
         <v>6749</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="463">
       <c r="A463" s="1">
         <v>44352</v>
       </c>
@@ -19411,7 +19433,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="464">
       <c r="A464" s="1">
         <v>44353</v>
       </c>
@@ -19452,7 +19474,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="465">
       <c r="A465" s="1">
         <v>44354</v>
       </c>
@@ -19493,7 +19515,7 @@
         <v>6771</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="466">
       <c r="A466" s="1">
         <v>44355</v>
       </c>
@@ -19534,7 +19556,7 @@
         <v>6777</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="467">
       <c r="A467" s="1">
         <v>44356</v>
       </c>
@@ -19575,7 +19597,7 @@
         <v>6782</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="468">
       <c r="A468" s="1">
         <v>44357</v>
       </c>
@@ -19616,7 +19638,7 @@
         <v>6785</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="469">
       <c r="A469" s="1">
         <v>44358</v>
       </c>
@@ -19657,7 +19679,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="470">
       <c r="A470" s="1">
         <v>44359</v>
       </c>
@@ -19698,7 +19720,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="471">
       <c r="A471" s="1">
         <v>44360</v>
       </c>
@@ -19739,7 +19761,7 @@
         <v>6795</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="472">
       <c r="A472" s="1">
         <v>44361</v>
       </c>
@@ -19780,7 +19802,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="473">
       <c r="A473" s="1">
         <v>44362</v>
       </c>
@@ -19821,7 +19843,7 @@
         <v>6807</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="474">
       <c r="A474" s="1">
         <v>44363</v>
       </c>
@@ -19862,7 +19884,7 @@
         <v>6812</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="475">
       <c r="A475" s="1">
         <v>44364</v>
       </c>
@@ -19903,7 +19925,7 @@
         <v>6821</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="476">
       <c r="A476" s="1">
         <v>44365</v>
       </c>
@@ -19944,7 +19966,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="477">
       <c r="A477" s="1">
         <v>44366</v>
       </c>
@@ -19985,7 +20007,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="478">
       <c r="A478" s="1">
         <v>44367</v>
       </c>
@@ -20026,7 +20048,7 @@
         <v>6830</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="479">
       <c r="A479" s="1">
         <v>44368</v>
       </c>
@@ -20067,7 +20089,7 @@
         <v>6835</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="480">
       <c r="A480" s="1">
         <v>44369</v>
       </c>
@@ -20108,7 +20130,7 @@
         <v>6837</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="481">
       <c r="A481" s="1">
         <v>44370</v>
       </c>
@@ -20149,7 +20171,7 @@
         <v>6838</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="482">
       <c r="A482" s="1">
         <v>44371</v>
       </c>
@@ -20190,7 +20212,7 @@
         <v>6844</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="483">
       <c r="A483" s="1">
         <v>44372</v>
       </c>
@@ -20231,7 +20253,7 @@
         <v>6849</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="484">
       <c r="A484" s="1">
         <v>44373</v>
       </c>
@@ -20272,7 +20294,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="485">
       <c r="A485" s="1">
         <v>44374</v>
       </c>
@@ -20313,7 +20335,7 @@
         <v>6856</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="486">
       <c r="A486" s="1">
         <v>44375</v>
       </c>
@@ -20354,7 +20376,7 @@
         <v>6865</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="487">
       <c r="A487" s="1">
         <v>44376</v>
       </c>
@@ -20395,7 +20417,7 @@
         <v>6872</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="488">
       <c r="A488" s="1">
         <v>44377</v>
       </c>
@@ -20436,7 +20458,7 @@
         <v>6877</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="489">
       <c r="A489" s="1">
         <v>44378</v>
       </c>
@@ -20477,7 +20499,7 @@
         <v>6884</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="490">
       <c r="A490" s="1">
         <v>44379</v>
       </c>
@@ -20518,7 +20540,7 @@
         <v>6890</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="491">
       <c r="A491" s="1">
         <v>44380</v>
       </c>
@@ -20559,7 +20581,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="492">
       <c r="A492" s="1">
         <v>44381</v>
       </c>
@@ -20600,7 +20622,7 @@
         <v>6892</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="493">
       <c r="A493" s="1">
         <v>44382</v>
       </c>
@@ -20641,7 +20663,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="494">
       <c r="A494" s="1">
         <v>44383</v>
       </c>
@@ -20682,7 +20704,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="495">
       <c r="A495" s="1">
         <v>44384</v>
       </c>
@@ -20723,7 +20745,7 @@
         <v>6907</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="496">
       <c r="A496" s="1">
         <v>44385</v>
       </c>
@@ -20764,7 +20786,7 @@
         <v>6914</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="497">
       <c r="A497" s="1">
         <v>44386</v>
       </c>
@@ -20805,7 +20827,7 @@
         <v>6922</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="498">
       <c r="A498" s="1">
         <v>44387</v>
       </c>
@@ -20846,7 +20868,7 @@
         <v>6923</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="499">
       <c r="A499" s="1">
         <v>44388</v>
       </c>
@@ -20887,7 +20909,7 @@
         <v>6928</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="500">
       <c r="A500" s="1">
         <v>44389</v>
       </c>
@@ -20928,7 +20950,7 @@
         <v>6935</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="501">
       <c r="A501" s="1">
         <v>44390</v>
       </c>
@@ -20969,7 +20991,7 @@
         <v>6941</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="502">
       <c r="A502" s="1">
         <v>44391</v>
       </c>
@@ -21010,7 +21032,7 @@
         <v>6945</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="503">
       <c r="A503" s="1">
         <v>44392</v>
       </c>
@@ -21051,7 +21073,7 @@
         <v>6950</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="504">
       <c r="A504" s="1">
         <v>44393</v>
       </c>
@@ -21092,7 +21114,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="505">
       <c r="A505" s="1">
         <v>44394</v>
       </c>
@@ -21133,7 +21155,7 @@
         <v>6959</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="506">
       <c r="A506" s="1">
         <v>44395</v>
       </c>
@@ -21174,7 +21196,7 @@
         <v>6964</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="507">
       <c r="A507" s="1">
         <v>44396</v>
       </c>
@@ -21215,7 +21237,7 @@
         <v>6971</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="508">
       <c r="A508" s="1">
         <v>44397</v>
       </c>
@@ -21256,7 +21278,7 @@
         <v>6980</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="509">
       <c r="A509" s="1">
         <v>44398</v>
       </c>
@@ -21297,7 +21319,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="510">
       <c r="A510" s="1">
         <v>44399</v>
       </c>
@@ -21338,7 +21360,7 @@
         <v>6991</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="511">
       <c r="A511" s="1">
         <v>44400</v>
       </c>
@@ -21379,7 +21401,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="512">
       <c r="A512" s="1">
         <v>44401</v>
       </c>
@@ -21420,7 +21442,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="513">
       <c r="A513" s="1">
         <v>44402</v>
       </c>
@@ -21461,7 +21483,7 @@
         <v>7007</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="514">
       <c r="A514" s="1">
         <v>44403</v>
       </c>
@@ -21502,7 +21524,7 @@
         <v>7010</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="515">
       <c r="A515" s="1">
         <v>44404</v>
       </c>
@@ -21543,7 +21565,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="516">
       <c r="A516" s="1">
         <v>44405</v>
       </c>
@@ -21584,7 +21606,7 @@
         <v>7026</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="517">
       <c r="A517" s="1">
         <v>44406</v>
       </c>
@@ -21625,7 +21647,7 @@
         <v>7032</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="518">
       <c r="A518" s="1">
         <v>44407</v>
       </c>
@@ -21666,7 +21688,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="519">
       <c r="A519" s="1">
         <v>44408</v>
       </c>
@@ -21707,7 +21729,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="520">
       <c r="A520" s="1">
         <v>44409</v>
       </c>
@@ -21748,7 +21770,7 @@
         <v>7054</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="521">
       <c r="A521" s="1">
         <v>44410</v>
       </c>
@@ -21789,7 +21811,7 @@
         <v>7060</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="522">
       <c r="A522" s="1">
         <v>44411</v>
       </c>
@@ -21830,7 +21852,7 @@
         <v>7073</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="523">
       <c r="A523" s="1">
         <v>44412</v>
       </c>
@@ -21871,7 +21893,7 @@
         <v>7077</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="524">
       <c r="A524" s="1">
         <v>44413</v>
       </c>
@@ -21912,7 +21934,7 @@
         <v>7088</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="525">
       <c r="A525" s="1">
         <v>44414</v>
       </c>
@@ -21953,7 +21975,7 @@
         <v>7099</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="526">
       <c r="A526" s="1">
         <v>44415</v>
       </c>
@@ -21994,7 +22016,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="527">
       <c r="A527" s="1">
         <v>44416</v>
       </c>
@@ -22035,7 +22057,7 @@
         <v>7114</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="528">
       <c r="A528" s="1">
         <v>44417</v>
       </c>
@@ -22076,7 +22098,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="529">
       <c r="A529" s="1">
         <v>44418</v>
       </c>
@@ -22117,7 +22139,7 @@
         <v>7137</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="530">
       <c r="A530" s="1">
         <v>44419</v>
       </c>
@@ -22158,7 +22180,7 @@
         <v>7152</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="531">
       <c r="A531" s="1">
         <v>44420</v>
       </c>
@@ -22199,7 +22221,7 @@
         <v>7166</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="532">
       <c r="A532" s="1">
         <v>44421</v>
       </c>
@@ -22240,7 +22262,7 @@
         <v>7181</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="533">
       <c r="A533" s="1">
         <v>44422</v>
       </c>
@@ -22281,7 +22303,7 @@
         <v>7189</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="534">
       <c r="A534" s="1">
         <v>44423</v>
       </c>
@@ -22322,7 +22344,7 @@
         <v>7196</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="535">
       <c r="A535" s="1">
         <v>44424</v>
       </c>
@@ -22363,7 +22385,7 @@
         <v>7211</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="536">
       <c r="A536" s="1">
         <v>44425</v>
       </c>
@@ -22404,7 +22426,7 @@
         <v>7223</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="537">
       <c r="A537" s="1">
         <v>44426</v>
       </c>
@@ -22445,7 +22467,7 @@
         <v>7236</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="538">
       <c r="A538" s="1">
         <v>44427</v>
       </c>
@@ -22486,7 +22508,7 @@
         <v>7249</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="539">
       <c r="A539" s="1">
         <v>44428</v>
       </c>
@@ -22527,7 +22549,7 @@
         <v>7260</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="540">
       <c r="A540" s="1">
         <v>44429</v>
       </c>
@@ -22568,7 +22590,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="541">
       <c r="A541" s="1">
         <v>44430</v>
       </c>
@@ -22609,7 +22631,7 @@
         <v>7276</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="542">
       <c r="A542" s="1">
         <v>44431</v>
       </c>
@@ -22650,7 +22672,7 @@
         <v>7285</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="543">
       <c r="A543" s="1">
         <v>44432</v>
       </c>
@@ -22691,7 +22713,7 @@
         <v>7294</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="544">
       <c r="A544" s="1">
         <v>44433</v>
       </c>
@@ -22732,7 +22754,7 @@
         <v>7313</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="545">
       <c r="A545" s="1">
         <v>44434</v>
       </c>
@@ -22773,7 +22795,7 @@
         <v>7322</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="546">
       <c r="A546" s="1">
         <v>44435</v>
       </c>
@@ -22814,7 +22836,7 @@
         <v>7338</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="547">
       <c r="A547" s="1">
         <v>44436</v>
       </c>
@@ -22855,7 +22877,7 @@
         <v>7343</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="548">
       <c r="A548" s="1">
         <v>44437</v>
       </c>
@@ -22896,7 +22918,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="549">
       <c r="A549" s="1">
         <v>44438</v>
       </c>
@@ -22937,7 +22959,7 @@
         <v>7385</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="550">
       <c r="A550" s="1">
         <v>44439</v>
       </c>
@@ -22978,7 +23000,7 @@
         <v>7399</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="551">
       <c r="A551" s="1">
         <v>44440</v>
       </c>
@@ -23019,7 +23041,7 @@
         <v>7411</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="552">
       <c r="A552" s="1">
         <v>44441</v>
       </c>
@@ -23060,7 +23082,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="553">
       <c r="A553" s="1">
         <v>44442</v>
       </c>
@@ -23101,7 +23123,7 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="554">
       <c r="A554" s="1">
         <v>44443</v>
       </c>
@@ -23142,7 +23164,7 @@
         <v>7469</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="555">
       <c r="A555" s="1">
         <v>44444</v>
       </c>
@@ -23183,7 +23205,7 @@
         <v>7486</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="556">
       <c r="A556" s="1">
         <v>44445</v>
       </c>
@@ -23224,7 +23246,7 @@
         <v>7499</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="557">
       <c r="A557" s="1">
         <v>44446</v>
       </c>
@@ -23265,7 +23287,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="558">
       <c r="A558" s="1">
         <v>44447</v>
       </c>
@@ -23306,7 +23328,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="559">
       <c r="A559" s="1">
         <v>44448</v>
       </c>
@@ -23347,7 +23369,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="560">
       <c r="A560" s="1">
         <v>44449</v>
       </c>
@@ -23388,7 +23410,7 @@
         <v>7567</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="561">
       <c r="A561" s="1">
         <v>44450</v>
       </c>
@@ -23429,7 +23451,7 @@
         <v>7581</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="562">
       <c r="A562" s="1">
         <v>44451</v>
       </c>
@@ -23470,7 +23492,7 @@
         <v>7588</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="563">
       <c r="A563" s="1">
         <v>44452</v>
       </c>
@@ -23511,7 +23533,7 @@
         <v>7607</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="564">
       <c r="A564" s="1">
         <v>44453</v>
       </c>
@@ -23552,7 +23574,7 @@
         <v>7631</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="565">
       <c r="A565" s="1">
         <v>44454</v>
       </c>
@@ -23593,7 +23615,7 @@
         <v>7646</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="566">
       <c r="A566" s="1">
         <v>44455</v>
       </c>
@@ -23634,7 +23656,7 @@
         <v>7675</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="567">
       <c r="A567" s="1">
         <v>44456</v>
       </c>
@@ -23675,7 +23697,7 @@
         <v>7695</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="568">
       <c r="A568" s="1">
         <v>44457</v>
       </c>
@@ -23716,7 +23738,7 @@
         <v>7702</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="569">
       <c r="A569" s="1">
         <v>44458</v>
       </c>
@@ -23757,7 +23779,7 @@
         <v>7716</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="570">
       <c r="A570" s="1">
         <v>44459</v>
       </c>
@@ -23798,7 +23820,7 @@
         <v>7736</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="571">
       <c r="A571" s="1">
         <v>44460</v>
       </c>
@@ -23839,7 +23861,7 @@
         <v>7758</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="572">
       <c r="A572" s="1">
         <v>44461</v>
       </c>
@@ -23880,7 +23902,7 @@
         <v>7779</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="573">
       <c r="A573" s="1">
         <v>44462</v>
       </c>
@@ -23921,7 +23943,7 @@
         <v>7801</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="574">
       <c r="A574" s="1">
         <v>44463</v>
       </c>
@@ -23962,7 +23984,7 @@
         <v>7825</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="575">
       <c r="A575" s="1">
         <v>44464</v>
       </c>
@@ -24003,7 +24025,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="576">
       <c r="A576" s="1">
         <v>44465</v>
       </c>
@@ -24044,7 +24066,7 @@
         <v>7852</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="577">
       <c r="A577" s="1">
         <v>44466</v>
       </c>
@@ -24085,7 +24107,7 @@
         <v>7866</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="578">
       <c r="A578" s="1">
         <v>44467</v>
       </c>
@@ -24126,7 +24148,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="579">
       <c r="A579" s="1">
         <v>44468</v>
       </c>
@@ -24167,7 +24189,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="580">
       <c r="A580" s="1">
         <v>44469</v>
       </c>
@@ -24208,7 +24230,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="581">
       <c r="A581" s="1">
         <v>44470</v>
       </c>
@@ -24249,7 +24271,7 @@
         <v>7957</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="582">
       <c r="A582" s="1">
         <v>44471</v>
       </c>
@@ -24290,7 +24312,7 @@
         <v>7974</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="583">
       <c r="A583" s="1">
         <v>44472</v>
       </c>
@@ -24331,7 +24353,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="584">
       <c r="A584" s="1">
         <v>44473</v>
       </c>
@@ -24372,7 +24394,7 @@
         <v>8022</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="585">
       <c r="A585" s="1">
         <v>44474</v>
       </c>
@@ -24413,7 +24435,7 @@
         <v>8048</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="586">
       <c r="A586" s="1">
         <v>44475</v>
       </c>
@@ -24454,7 +24476,7 @@
         <v>8079</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="587">
       <c r="A587" s="1">
         <v>44476</v>
       </c>
@@ -24495,7 +24517,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="588">
       <c r="A588" s="1">
         <v>44477</v>
       </c>
@@ -24536,7 +24558,7 @@
         <v>8126</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="589">
       <c r="A589" s="1">
         <v>44478</v>
       </c>
@@ -24577,7 +24599,7 @@
         <v>8149</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="590">
       <c r="A590" s="1">
         <v>44479</v>
       </c>
@@ -24618,7 +24640,7 @@
         <v>8166</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="591">
       <c r="A591" s="1">
         <v>44480</v>
       </c>
@@ -24659,7 +24681,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="592">
       <c r="A592" s="1">
         <v>44481</v>
       </c>
@@ -24700,7 +24722,7 @@
         <v>8215</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="593">
       <c r="A593" s="1">
         <v>44482</v>
       </c>
@@ -24741,7 +24763,7 @@
         <v>8239</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="594">
       <c r="A594" s="1">
         <v>44483</v>
       </c>
@@ -24782,7 +24804,7 @@
         <v>8268</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="595">
       <c r="A595" s="1">
         <v>44484</v>
       </c>
@@ -24823,7 +24845,7 @@
         <v>8288</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="596">
       <c r="A596" s="1">
         <v>44485</v>
       </c>
@@ -24864,7 +24886,7 @@
         <v>8315</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="597">
       <c r="A597" s="1">
         <v>44486</v>
       </c>
@@ -24905,7 +24927,7 @@
         <v>8343</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="598">
       <c r="A598" s="1">
         <v>44487</v>
       </c>
@@ -24946,7 +24968,7 @@
         <v>8367</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="599">
       <c r="A599" s="1">
         <v>44488</v>
       </c>
@@ -24987,7 +25009,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="600">
       <c r="A600" s="1">
         <v>44489</v>
       </c>
@@ -25028,7 +25050,7 @@
         <v>8436</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="601">
       <c r="A601" s="1">
         <v>44490</v>
       </c>
@@ -25069,7 +25091,7 @@
         <v>8471</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="602">
       <c r="A602" s="1">
         <v>44491</v>
       </c>
@@ -25110,7 +25132,7 @@
         <v>8513</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="603">
       <c r="A603" s="1">
         <v>44492</v>
       </c>
@@ -25151,7 +25173,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="604">
       <c r="A604" s="1">
         <v>44493</v>
       </c>
@@ -25192,7 +25214,7 @@
         <v>8568</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="605">
       <c r="A605" s="1">
         <v>44494</v>
       </c>
@@ -25233,7 +25255,7 @@
         <v>8603</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="606">
       <c r="A606" s="1">
         <v>44495</v>
       </c>
@@ -25274,7 +25296,7 @@
         <v>8642</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="607">
       <c r="A607" s="1">
         <v>44496</v>
       </c>
@@ -25315,7 +25337,7 @@
         <v>8683</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="608">
       <c r="A608" s="1">
         <v>44497</v>
       </c>
@@ -25356,7 +25378,7 @@
         <v>8717</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="609">
       <c r="A609" s="1">
         <v>44498</v>
       </c>
@@ -25397,7 +25419,7 @@
         <v>8761</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="610">
       <c r="A610" s="1">
         <v>44499</v>
       </c>
@@ -25438,7 +25460,7 @@
         <v>8785</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="611">
       <c r="A611" s="1">
         <v>44500</v>
       </c>
@@ -25479,7 +25501,7 @@
         <v>8806</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="612">
       <c r="A612" s="1">
         <v>44501</v>
       </c>
@@ -25520,7 +25542,7 @@
         <v>8847</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="613">
       <c r="A613" s="1">
         <v>44502</v>
       </c>
@@ -25561,7 +25583,7 @@
         <v>8879</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="614">
       <c r="A614" s="1">
         <v>44503</v>
       </c>
@@ -25602,7 +25624,7 @@
         <v>8926</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="615">
       <c r="A615" s="1">
         <v>44504</v>
       </c>
@@ -25643,7 +25665,7 @@
         <v>8966</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="616">
       <c r="A616" s="1">
         <v>44505</v>
       </c>
@@ -25684,7 +25706,7 @@
         <v>9008</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="617">
       <c r="A617" s="1">
         <v>44506</v>
       </c>
@@ -25725,7 +25747,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="618">
       <c r="A618" s="1">
         <v>44507</v>
       </c>
@@ -25766,7 +25788,7 @@
         <v>9058</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="619">
       <c r="A619" s="1">
         <v>44508</v>
       </c>
@@ -25807,7 +25829,7 @@
         <v>9094</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="620">
       <c r="A620" s="1">
         <v>44509</v>
       </c>
@@ -25848,7 +25870,7 @@
         <v>9134</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="621">
       <c r="A621" s="1">
         <v>44510</v>
       </c>
@@ -25889,7 +25911,7 @@
         <v>9182</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="622">
       <c r="A622" s="1">
         <v>44511</v>
       </c>
@@ -25930,7 +25952,7 @@
         <v>9228</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="623">
       <c r="A623" s="1">
         <v>44512</v>
       </c>
@@ -25971,7 +25993,7 @@
         <v>9262</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="624">
       <c r="A624" s="1">
         <v>44513</v>
       </c>
@@ -26012,7 +26034,7 @@
         <v>9287</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="625">
       <c r="A625" s="1">
         <v>44514</v>
       </c>
@@ -26053,7 +26075,7 @@
         <v>9309</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="626">
       <c r="A626" s="1">
         <v>44515</v>
       </c>
@@ -26094,7 +26116,7 @@
         <v>9369</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="627">
       <c r="A627" s="1">
         <v>44516</v>
       </c>
@@ -26135,7 +26157,7 @@
         <v>9421</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="628">
       <c r="A628" s="1">
         <v>44517</v>
       </c>
@@ -26176,7 +26198,7 @@
         <v>9468</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="629">
       <c r="A629" s="1">
         <v>44518</v>
       </c>
@@ -26217,7 +26239,7 @@
         <v>9499</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="630">
       <c r="A630" s="1">
         <v>44519</v>
       </c>
@@ -26258,7 +26280,7 @@
         <v>9533</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="631">
       <c r="A631" s="1">
         <v>44520</v>
       </c>
@@ -26299,7 +26321,7 @@
         <v>9551</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="632">
       <c r="A632" s="1">
         <v>44521</v>
       </c>
@@ -26340,7 +26362,7 @@
         <v>9573</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="633">
       <c r="A633" s="1">
         <v>44522</v>
       </c>
@@ -26381,7 +26403,7 @@
         <v>9610</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="634">
       <c r="A634" s="1">
         <v>44523</v>
       </c>
@@ -26422,7 +26444,7 @@
         <v>9655</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="635">
       <c r="A635" s="1">
         <v>44524</v>
       </c>
@@ -26463,7 +26485,7 @@
         <v>9701</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="636">
       <c r="A636" s="1">
         <v>44525</v>
       </c>
@@ -26504,7 +26526,7 @@
         <v>9714</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="637">
       <c r="A637" s="1">
         <v>44526</v>
       </c>
@@ -26545,7 +26567,7 @@
         <v>9763</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="638">
       <c r="A638" s="1">
         <v>44527</v>
       </c>
@@ -26586,7 +26608,7 @@
         <v>9795</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="639">
       <c r="A639" s="1">
         <v>44528</v>
       </c>
@@ -26627,7 +26649,7 @@
         <v>9820</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="640">
       <c r="A640" s="1">
         <v>44529</v>
       </c>
@@ -26668,7 +26690,7 @@
         <v>9854</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="641">
       <c r="A641" s="1">
         <v>44530</v>
       </c>
@@ -26709,7 +26731,7 @@
         <v>9893</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="642">
       <c r="A642" s="1">
         <v>44531</v>
       </c>
@@ -26750,7 +26772,7 @@
         <v>9920</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="643">
       <c r="A643" s="1">
         <v>44532</v>
       </c>
@@ -26791,7 +26813,7 @@
         <v>9953</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="644">
       <c r="A644" s="1">
         <v>44533</v>
       </c>
@@ -26832,7 +26854,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="645">
       <c r="A645" s="1">
         <v>44534</v>
       </c>
@@ -26873,7 +26895,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="646">
       <c r="A646" s="1">
         <v>44535</v>
       </c>
@@ -26914,7 +26936,7 @@
         <v>10026</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="647">
       <c r="A647" s="1">
         <v>44536</v>
       </c>
@@ -26955,7 +26977,7 @@
         <v>10078</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="648">
       <c r="A648" s="1">
         <v>44537</v>
       </c>
@@ -26996,7 +27018,7 @@
         <v>10117</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="649">
       <c r="A649" s="1">
         <v>44538</v>
       </c>
@@ -27037,7 +27059,7 @@
         <v>10147</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="650">
       <c r="A650" s="1">
         <v>44539</v>
       </c>
@@ -27078,7 +27100,7 @@
         <v>10191</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="651">
       <c r="A651" s="1">
         <v>44540</v>
       </c>
@@ -27119,7 +27141,7 @@
         <v>10216</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="652">
       <c r="A652" s="1">
         <v>44541</v>
       </c>
@@ -27160,7 +27182,7 @@
         <v>10233</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="653">
       <c r="A653" s="1">
         <v>44542</v>
       </c>
@@ -27201,7 +27223,7 @@
         <v>10246</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="654">
       <c r="A654" s="1">
         <v>44543</v>
       </c>
@@ -27242,7 +27264,7 @@
         <v>10267</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="655">
       <c r="A655" s="1">
         <v>44544</v>
       </c>
@@ -27283,7 +27305,7 @@
         <v>10298</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="656">
       <c r="A656" s="1">
         <v>44545</v>
       </c>
@@ -27324,7 +27346,7 @@
         <v>10323</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="657">
       <c r="A657" s="1">
         <v>44546</v>
       </c>
@@ -27365,7 +27387,7 @@
         <v>10348</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="658">
       <c r="A658" s="1">
         <v>44547</v>
       </c>
@@ -27406,7 +27428,7 @@
         <v>10372</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="659">
       <c r="A659" s="1">
         <v>44548</v>
       </c>
@@ -27447,7 +27469,7 @@
         <v>10387</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="660">
       <c r="A660" s="1">
         <v>44549</v>
       </c>
@@ -27488,7 +27510,7 @@
         <v>10414</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="661">
       <c r="A661" s="1">
         <v>44550</v>
       </c>
@@ -27529,7 +27551,7 @@
         <v>10442</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="662">
       <c r="A662" s="1">
         <v>44551</v>
       </c>
@@ -27570,7 +27592,7 @@
         <v>10472</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="663">
       <c r="A663" s="1">
         <v>44552</v>
       </c>
@@ -27611,7 +27633,7 @@
         <v>10495</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="664">
       <c r="A664" s="1">
         <v>44553</v>
       </c>
@@ -27652,7 +27674,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="665">
       <c r="A665" s="1">
         <v>44554</v>
       </c>
@@ -27693,7 +27715,7 @@
         <v>10529</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="666">
       <c r="A666" s="1">
         <v>44555</v>
       </c>
@@ -27734,7 +27756,7 @@
         <v>10538</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="667">
       <c r="A667" s="1">
         <v>44556</v>
       </c>
@@ -27775,7 +27797,7 @@
         <v>10554</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="668">
       <c r="A668" s="1">
         <v>44557</v>
       </c>
@@ -27816,7 +27838,7 @@
         <v>10580</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="669">
       <c r="A669" s="1">
         <v>44558</v>
       </c>
@@ -27857,7 +27879,7 @@
         <v>10603</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="670">
       <c r="A670" s="1">
         <v>44559</v>
       </c>
@@ -27898,7 +27920,7 @@
         <v>10641</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="671">
       <c r="A671" s="1">
         <v>44560</v>
       </c>
@@ -27939,7 +27961,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="672">
       <c r="A672" s="1">
         <v>44561</v>
       </c>
@@ -27980,7 +28002,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="673">
       <c r="A673" s="1">
         <v>44562</v>
       </c>
@@ -28021,7 +28043,7 @@
         <v>10715</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="674">
       <c r="A674" s="1">
         <v>44563</v>
       </c>
@@ -28062,7 +28084,7 @@
         <v>10725</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="675">
       <c r="A675" s="1">
         <v>44564</v>
       </c>
@@ -28103,7 +28125,7 @@
         <v>10762</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="676">
       <c r="A676" s="1">
         <v>44565</v>
       </c>
@@ -28144,7 +28166,7 @@
         <v>10797</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="677">
       <c r="A677" s="1">
         <v>44566</v>
       </c>
@@ -28185,7 +28207,7 @@
         <v>10860</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="678">
       <c r="A678" s="1">
         <v>44567</v>
       </c>
@@ -28226,7 +28248,7 @@
         <v>10916</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="679">
       <c r="A679" s="1">
         <v>44568</v>
       </c>
@@ -28267,7 +28289,7 @@
         <v>10964</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="680">
       <c r="A680" s="1">
         <v>44569</v>
       </c>
@@ -28308,7 +28330,7 @@
         <v>10996</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="681">
       <c r="A681" s="1">
         <v>44570</v>
       </c>
@@ -28349,7 +28371,7 @@
         <v>11024</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="682">
       <c r="A682" s="1">
         <v>44571</v>
       </c>
@@ -28390,7 +28412,7 @@
         <v>11072</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="683">
       <c r="A683" s="1">
         <v>44572</v>
       </c>
@@ -28431,7 +28453,7 @@
         <v>11108</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="684">
       <c r="A684" s="1">
         <v>44573</v>
       </c>
@@ -28472,7 +28494,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="685">
       <c r="A685" s="1">
         <v>44574</v>
       </c>
@@ -28513,7 +28535,7 @@
         <v>11187</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="686">
       <c r="A686" s="1">
         <v>44575</v>
       </c>
@@ -28554,7 +28576,7 @@
         <v>11244</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="687">
       <c r="A687" s="1">
         <v>44576</v>
       </c>
@@ -28595,7 +28617,7 @@
         <v>11273</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="688">
       <c r="A688" s="1">
         <v>44577</v>
       </c>
@@ -28636,7 +28658,7 @@
         <v>11296</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="689">
       <c r="A689" s="1">
         <v>44578</v>
       </c>
@@ -28677,7 +28699,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="690">
       <c r="A690" s="1">
         <v>44579</v>
       </c>
@@ -28718,7 +28740,7 @@
         <v>11357</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="691">
       <c r="A691" s="1">
         <v>44580</v>
       </c>
@@ -28759,7 +28781,7 @@
         <v>11393</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="692">
       <c r="A692" s="1">
         <v>44581</v>
       </c>
@@ -28800,7 +28822,7 @@
         <v>11428</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="693">
       <c r="A693" s="1">
         <v>44582</v>
       </c>
@@ -28841,7 +28863,7 @@
         <v>11451</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="694">
       <c r="A694" s="1">
         <v>44583</v>
       </c>
@@ -28882,7 +28904,7 @@
         <v>11473</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="695">
       <c r="A695" s="1">
         <v>44584</v>
       </c>
@@ -28923,7 +28945,7 @@
         <v>11487</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="696">
       <c r="A696" s="1">
         <v>44585</v>
       </c>
@@ -28964,7 +28986,7 @@
         <v>11524</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="697">
       <c r="A697" s="1">
         <v>44586</v>
       </c>
@@ -29005,7 +29027,7 @@
         <v>11554</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="698">
       <c r="A698" s="1">
         <v>44587</v>
       </c>
@@ -29046,7 +29068,7 @@
         <v>11590</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="699">
       <c r="A699" s="1">
         <v>44588</v>
       </c>
@@ -29087,7 +29109,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="700">
       <c r="A700" s="1">
         <v>44589</v>
       </c>
@@ -29128,7 +29150,7 @@
         <v>11631</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="701">
       <c r="A701" s="1">
         <v>44590</v>
       </c>
@@ -29169,7 +29191,7 @@
         <v>11645</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="702">
       <c r="A702" s="1">
         <v>44591</v>
       </c>
@@ -29210,7 +29232,7 @@
         <v>11655</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="703">
       <c r="A703" s="1">
         <v>44592</v>
       </c>
@@ -29251,7 +29273,7 @@
         <v>11677</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="704">
       <c r="A704" s="1">
         <v>44593</v>
       </c>
@@ -29292,7 +29314,7 @@
         <v>11688</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="705">
       <c r="A705" s="1">
         <v>44594</v>
       </c>
@@ -29333,7 +29355,7 @@
         <v>11706</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="706">
       <c r="A706" s="1">
         <v>44595</v>
       </c>
@@ -29374,7 +29396,7 @@
         <v>11717</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="707">
       <c r="A707" s="1">
         <v>44596</v>
       </c>
@@ -29415,7 +29437,7 @@
         <v>11734</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="708">
       <c r="A708" s="1">
         <v>44597</v>
       </c>
@@ -29456,7 +29478,7 @@
         <v>11756</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="709">
       <c r="A709" s="1">
         <v>44598</v>
       </c>
@@ -29497,7 +29519,7 @@
         <v>11760</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="710">
       <c r="A710" s="1">
         <v>44599</v>
       </c>
@@ -29538,7 +29560,7 @@
         <v>11771</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="711">
       <c r="A711" s="1">
         <v>44600</v>
       </c>
@@ -29579,7 +29601,7 @@
         <v>11775</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="712">
       <c r="A712" s="1">
         <v>44601</v>
       </c>
@@ -29620,7 +29642,7 @@
         <v>11798</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="713">
       <c r="A713" s="1">
         <v>44602</v>
       </c>
@@ -29661,7 +29683,7 @@
         <v>11809</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="714">
       <c r="A714" s="1">
         <v>44603</v>
       </c>
@@ -29702,7 +29724,7 @@
         <v>11817</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="715">
       <c r="A715" s="1">
         <v>44604</v>
       </c>
@@ -29743,7 +29765,7 @@
         <v>11824</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="716">
       <c r="A716" s="1">
         <v>44605</v>
       </c>
@@ -29784,7 +29806,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="717">
       <c r="A717" s="1">
         <v>44606</v>
       </c>
@@ -29825,7 +29847,7 @@
         <v>11832</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="718">
       <c r="A718" s="1">
         <v>44607</v>
       </c>
@@ -29866,7 +29888,7 @@
         <v>11840</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="719">
       <c r="A719" s="1">
         <v>44608</v>
       </c>
@@ -29907,7 +29929,7 @@
         <v>11847</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="720">
       <c r="A720" s="1">
         <v>44609</v>
       </c>
@@ -29948,7 +29970,7 @@
         <v>11852</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="721">
       <c r="A721" s="1">
         <v>44610</v>
       </c>
@@ -29989,7 +30011,7 @@
         <v>11853</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="722">
       <c r="A722" s="1">
         <v>44611</v>
       </c>
@@ -30030,7 +30052,7 @@
         <v>11858</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="723">
       <c r="A723" s="1">
         <v>44612</v>
       </c>
@@ -30071,7 +30093,7 @@
         <v>11861</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="724">
       <c r="A724" s="1">
         <v>44613</v>
       </c>
@@ -30112,7 +30134,7 @@
         <v>11865</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="725">
       <c r="A725" s="1">
         <v>44614</v>
       </c>
@@ -30153,7 +30175,7 @@
         <v>11880</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="726">
       <c r="A726" s="1">
         <v>44615</v>
       </c>
@@ -30194,7 +30216,7 @@
         <v>11881</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="727">
       <c r="A727" s="1">
         <v>44616</v>
       </c>
@@ -30235,7 +30257,7 @@
         <v>11883</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="728">
       <c r="A728" s="1">
         <v>44617</v>
       </c>
@@ -30276,7 +30298,7 @@
         <v>11885</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="729">
       <c r="A729" s="1">
         <v>44618</v>
       </c>
@@ -30317,7 +30339,7 @@
         <v>11887</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="730">
       <c r="A730" s="1">
         <v>44619</v>
       </c>
@@ -30358,7 +30380,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="731">
       <c r="A731" s="1">
         <v>44620</v>
       </c>
@@ -30399,7 +30421,7 @@
         <v>11895</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="732">
       <c r="A732" s="1">
         <v>44621</v>
       </c>
@@ -30440,7 +30462,7 @@
         <v>11897</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="733">
       <c r="A733" s="1">
         <v>44622</v>
       </c>
@@ -30481,7 +30503,7 @@
         <v>11902</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="734">
       <c r="A734" s="1">
         <v>44623</v>
       </c>
@@ -30522,7 +30544,7 @@
         <v>11904</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="735">
       <c r="A735" s="1">
         <v>44624</v>
       </c>
@@ -30563,7 +30585,7 @@
         <v>11906</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="736">
       <c r="A736" s="1">
         <v>44625</v>
       </c>
@@ -30604,7 +30626,7 @@
         <v>11907</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="737">
       <c r="A737" s="1">
         <v>44626</v>
       </c>
@@ -30645,7 +30667,7 @@
         <v>11907</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="738">
       <c r="A738" s="1">
         <v>44627</v>
       </c>
@@ -30686,7 +30708,7 @@
         <v>11908</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="739">
       <c r="A739" s="1">
         <v>44628</v>
       </c>
@@ -30727,7 +30749,7 @@
         <v>11914</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="740">
       <c r="A740" s="1">
         <v>44629</v>
       </c>
@@ -30768,7 +30790,7 @@
         <v>11916</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="741">
       <c r="A741" s="1">
         <v>44630</v>
       </c>
@@ -30809,7 +30831,7 @@
         <v>11918</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="742">
       <c r="A742" s="1">
         <v>44631</v>
       </c>
@@ -30850,7 +30872,7 @@
         <v>11919</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="743">
       <c r="A743" s="1">
         <v>44632</v>
       </c>
@@ -30891,7 +30913,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="744">
       <c r="A744" s="1">
         <v>44633</v>
       </c>
@@ -30932,7 +30954,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="745">
       <c r="A745" s="1">
         <v>44634</v>
       </c>
@@ -30973,7 +30995,7 @@
         <v>11923</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="746">
       <c r="A746" s="1">
         <v>44635</v>
       </c>
@@ -31014,7 +31036,7 @@
         <v>11926</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="747">
       <c r="A747" s="1">
         <v>44636</v>
       </c>
@@ -31055,7 +31077,7 @@
         <v>11929</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="748">
       <c r="A748" s="1">
         <v>44637</v>
       </c>
@@ -31096,7 +31118,7 @@
         <v>11929</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="749">
       <c r="A749" s="1">
         <v>44638</v>
       </c>
@@ -31137,7 +31159,7 @@
         <v>11930</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="750">
       <c r="A750" s="1">
         <v>44639</v>
       </c>
@@ -31178,7 +31200,7 @@
         <v>11930</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
+    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="751">
       <c r="A751" s="1">
         <v>44640</v>
       </c>
@@ -31217,6 +31239,88 @@
       </c>
       <c r="M751">
         <v>11930</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="752">
+      <c r="A752" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B752" s="0">
+        <v>165</v>
+      </c>
+      <c r="C752" s="0">
+        <v>1216656</v>
+      </c>
+      <c r="D752" s="0">
+        <v>39</v>
+      </c>
+      <c r="E752" s="0">
+        <v>119120</v>
+      </c>
+      <c r="F752" s="0">
+        <v>204</v>
+      </c>
+      <c r="G752" s="0">
+        <v>1335776</v>
+      </c>
+      <c r="H752" s="0">
+        <v>0</v>
+      </c>
+      <c r="I752" s="0">
+        <v>10485</v>
+      </c>
+      <c r="J752" s="0">
+        <v>3</v>
+      </c>
+      <c r="K752" s="0">
+        <v>1448</v>
+      </c>
+      <c r="L752" s="0">
+        <v>3</v>
+      </c>
+      <c r="M752" s="0">
+        <v>11933</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="753">
+      <c r="A753" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B753" s="0">
+        <v>0</v>
+      </c>
+      <c r="C753" s="0">
+        <v>1216656</v>
+      </c>
+      <c r="D753" s="0">
+        <v>0</v>
+      </c>
+      <c r="E753" s="0">
+        <v>119120</v>
+      </c>
+      <c r="F753" s="0">
+        <v>0</v>
+      </c>
+      <c r="G753" s="0">
+        <v>1335776</v>
+      </c>
+      <c r="H753" s="0">
+        <v>0</v>
+      </c>
+      <c r="I753" s="0">
+        <v>10485</v>
+      </c>
+      <c r="J753" s="0">
+        <v>0</v>
+      </c>
+      <c r="K753" s="0">
+        <v>1448</v>
+      </c>
+      <c r="L753" s="0">
+        <v>0</v>
+      </c>
+      <c r="M753" s="0">
+        <v>11933</v>
       </c>
     </row>
   </sheetData>

--- a/28.CDC case counts/Output/Bulk_Historical_Update_Colorado_2022-03-22.xlsx
+++ b/28.CDC case counts/Output/Bulk_Historical_Update_Colorado_2022-03-22.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="C:\Users\eabush\Documents\GitHub\Data-requests\28.CDC case counts\Output\"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eabush\Documents\GitHub\Data-requests\28.CDC case counts\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Jurisdictional_Aggregate_Data"/>
+    <sheet name="Jurisdictional_Aggregate_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Jurisdictional_Aggregate_Data">'Jurisdictional_Aggregate_Data'!$A$1:$M$753</definedName>
+    <definedName name="Jurisdictional_Aggregate_Data">Jurisdictional_Aggregate_Data!$A$1:$M$752</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -400,11 +404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:M753"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="A753" sqref="A753:XFD753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,74 +428,48 @@
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Submission_Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>New_Confirmed_Cases</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Total_Confirmed_Cases</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>New_Probable_Cases</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Probable_Cases</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Total_New_Cases</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Total_Cases</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>New_Confirmed_Deathsd</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Total_Confirmed_Deaths</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>New_Probable_Deaths</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Total_Probable_Deaths</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>New_deaths</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Total_Deaths</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -532,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43892</v>
       </c>
@@ -573,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43893</v>
       </c>
@@ -614,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43894</v>
       </c>
@@ -655,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43895</v>
       </c>
@@ -696,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43896</v>
       </c>
@@ -737,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43897</v>
       </c>
@@ -778,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43898</v>
       </c>
@@ -819,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43899</v>
       </c>
@@ -860,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43900</v>
       </c>
@@ -901,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43901</v>
       </c>
@@ -942,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
@@ -983,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -1024,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
@@ -1065,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43905</v>
       </c>
@@ -1106,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43906</v>
       </c>
@@ -1147,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43907</v>
       </c>
@@ -1188,7 +1166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
@@ -1229,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43909</v>
       </c>
@@ -1270,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43910</v>
       </c>
@@ -1311,7 +1289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43911</v>
       </c>
@@ -1352,7 +1330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43912</v>
       </c>
@@ -1393,7 +1371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43913</v>
       </c>
@@ -1434,7 +1412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43914</v>
       </c>
@@ -1475,7 +1453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43915</v>
       </c>
@@ -1516,7 +1494,7 @@
         <v>64</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43916</v>
       </c>
@@ -1557,7 +1535,7 @@
         <v>86</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43917</v>
       </c>
@@ -1598,7 +1576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43918</v>
       </c>
@@ -1639,7 +1617,7 @@
         <v>134</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43919</v>
       </c>
@@ -1680,7 +1658,7 @@
         <v>152</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43920</v>
       </c>
@@ -1721,7 +1699,7 @@
         <v>180</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43921</v>
       </c>
@@ -1762,7 +1740,7 @@
         <v>208</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43922</v>
       </c>
@@ -1803,7 +1781,7 @@
         <v>240</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="34">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43923</v>
       </c>
@@ -1844,7 +1822,7 @@
         <v>275</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43924</v>
       </c>
@@ -1885,7 +1863,7 @@
         <v>303</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="36">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43925</v>
       </c>
@@ -1926,7 +1904,7 @@
         <v>332</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="37">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43926</v>
       </c>
@@ -1967,7 +1945,7 @@
         <v>357</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="38">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
@@ -2008,7 +1986,7 @@
         <v>374</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="39">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
@@ -2049,7 +2027,7 @@
         <v>395</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="40">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43929</v>
       </c>
@@ -2090,7 +2068,7 @@
         <v>447</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="41">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43930</v>
       </c>
@@ -2131,7 +2109,7 @@
         <v>474</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="42">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43931</v>
       </c>
@@ -2172,7 +2150,7 @@
         <v>507</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="43">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43932</v>
       </c>
@@ -2213,7 +2191,7 @@
         <v>546</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="44">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43933</v>
       </c>
@@ -2254,7 +2232,7 @@
         <v>573</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43934</v>
       </c>
@@ -2295,7 +2273,7 @@
         <v>598</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="46">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43935</v>
       </c>
@@ -2336,7 +2314,7 @@
         <v>628</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="47">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43936</v>
       </c>
@@ -2377,7 +2355,7 @@
         <v>666</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="48">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43937</v>
       </c>
@@ -2418,7 +2396,7 @@
         <v>695</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="49">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43938</v>
       </c>
@@ -2459,7 +2437,7 @@
         <v>723</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="50">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43939</v>
       </c>
@@ -2500,7 +2478,7 @@
         <v>735</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="51">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43940</v>
       </c>
@@ -2541,7 +2519,7 @@
         <v>761</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="52">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43941</v>
       </c>
@@ -2582,7 +2560,7 @@
         <v>781</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="53">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43942</v>
       </c>
@@ -2623,7 +2601,7 @@
         <v>811</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="54">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43943</v>
       </c>
@@ -2664,7 +2642,7 @@
         <v>842</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="55">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43944</v>
       </c>
@@ -2705,7 +2683,7 @@
         <v>961</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="56">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43945</v>
       </c>
@@ -2746,7 +2724,7 @@
         <v>985</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="57">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43946</v>
       </c>
@@ -2787,7 +2765,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="58">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43947</v>
       </c>
@@ -2828,7 +2806,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="59">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43948</v>
       </c>
@@ -2869,7 +2847,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="60">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43949</v>
       </c>
@@ -2910,7 +2888,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="61">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43950</v>
       </c>
@@ -2951,7 +2929,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="62">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43951</v>
       </c>
@@ -2992,7 +2970,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="63">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43952</v>
       </c>
@@ -3033,7 +3011,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="64">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43953</v>
       </c>
@@ -3074,7 +3052,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="65">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43954</v>
       </c>
@@ -3115,7 +3093,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="66">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43955</v>
       </c>
@@ -3156,7 +3134,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="67">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43956</v>
       </c>
@@ -3197,7 +3175,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="68">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43957</v>
       </c>
@@ -3238,7 +3216,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="69">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43958</v>
       </c>
@@ -3279,7 +3257,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="70">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43959</v>
       </c>
@@ -3320,7 +3298,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="71">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43960</v>
       </c>
@@ -3361,7 +3339,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="72">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43961</v>
       </c>
@@ -3402,7 +3380,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="73">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43962</v>
       </c>
@@ -3443,7 +3421,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="74">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43963</v>
       </c>
@@ -3484,7 +3462,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="75">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43964</v>
       </c>
@@ -3525,7 +3503,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="76">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43965</v>
       </c>
@@ -3566,7 +3544,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="77">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43966</v>
       </c>
@@ -3607,7 +3585,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="78">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43967</v>
       </c>
@@ -3648,7 +3626,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="79">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43968</v>
       </c>
@@ -3689,7 +3667,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="80">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43969</v>
       </c>
@@ -3730,7 +3708,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="81">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43970</v>
       </c>
@@ -3771,7 +3749,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="82">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43971</v>
       </c>
@@ -3812,7 +3790,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="83">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43972</v>
       </c>
@@ -3853,7 +3831,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="84">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43973</v>
       </c>
@@ -3894,7 +3872,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="85">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43974</v>
       </c>
@@ -3935,7 +3913,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="86">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43975</v>
       </c>
@@ -3976,7 +3954,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="87">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43976</v>
       </c>
@@ -4017,7 +3995,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="88">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43977</v>
       </c>
@@ -4058,7 +4036,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="89">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43978</v>
       </c>
@@ -4099,7 +4077,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="90">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43979</v>
       </c>
@@ -4140,7 +4118,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="91">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43980</v>
       </c>
@@ -4181,7 +4159,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="92">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43981</v>
       </c>
@@ -4222,7 +4200,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="93">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43982</v>
       </c>
@@ -4263,7 +4241,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="94">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43983</v>
       </c>
@@ -4304,7 +4282,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="95">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43984</v>
       </c>
@@ -4345,7 +4323,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="96">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43985</v>
       </c>
@@ -4386,7 +4364,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="97">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43986</v>
       </c>
@@ -4427,7 +4405,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="98">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43987</v>
       </c>
@@ -4468,7 +4446,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="99">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43988</v>
       </c>
@@ -4509,7 +4487,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="100">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43989</v>
       </c>
@@ -4550,7 +4528,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="101">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43990</v>
       </c>
@@ -4591,7 +4569,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="102">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43991</v>
       </c>
@@ -4632,7 +4610,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="103">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43992</v>
       </c>
@@ -4673,7 +4651,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="104">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43993</v>
       </c>
@@ -4714,7 +4692,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="105">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43994</v>
       </c>
@@ -4755,7 +4733,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="106">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43995</v>
       </c>
@@ -4796,7 +4774,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="107">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43996</v>
       </c>
@@ -4837,7 +4815,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="108">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43997</v>
       </c>
@@ -4878,7 +4856,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="109">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43998</v>
       </c>
@@ -4919,7 +4897,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="110">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43999</v>
       </c>
@@ -4960,7 +4938,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="111">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44000</v>
       </c>
@@ -5001,7 +4979,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="112">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44001</v>
       </c>
@@ -5042,7 +5020,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="113">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44002</v>
       </c>
@@ -5083,7 +5061,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="114">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44003</v>
       </c>
@@ -5124,7 +5102,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="115">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44004</v>
       </c>
@@ -5165,7 +5143,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="116">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44005</v>
       </c>
@@ -5206,7 +5184,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="117">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44006</v>
       </c>
@@ -5247,7 +5225,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="118">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44007</v>
       </c>
@@ -5288,7 +5266,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="119">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44008</v>
       </c>
@@ -5329,7 +5307,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="120">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44009</v>
       </c>
@@ -5370,7 +5348,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="121">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44010</v>
       </c>
@@ -5411,7 +5389,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="122">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44011</v>
       </c>
@@ -5452,7 +5430,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="123">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44012</v>
       </c>
@@ -5493,7 +5471,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="124">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44013</v>
       </c>
@@ -5534,7 +5512,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="125">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44014</v>
       </c>
@@ -5575,7 +5553,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="126">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44015</v>
       </c>
@@ -5616,7 +5594,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="127">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44016</v>
       </c>
@@ -5657,7 +5635,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="128">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44017</v>
       </c>
@@ -5698,7 +5676,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="129">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44018</v>
       </c>
@@ -5739,7 +5717,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="130">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44019</v>
       </c>
@@ -5780,7 +5758,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="131">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44020</v>
       </c>
@@ -5821,7 +5799,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="132">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44021</v>
       </c>
@@ -5862,7 +5840,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="133">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44022</v>
       </c>
@@ -5903,7 +5881,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="134">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44023</v>
       </c>
@@ -5944,7 +5922,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="135">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44024</v>
       </c>
@@ -5985,7 +5963,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="136">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44025</v>
       </c>
@@ -6026,7 +6004,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="137">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44026</v>
       </c>
@@ -6067,7 +6045,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="138">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44027</v>
       </c>
@@ -6108,7 +6086,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="139">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44028</v>
       </c>
@@ -6149,7 +6127,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="140">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44029</v>
       </c>
@@ -6190,7 +6168,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="141">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44030</v>
       </c>
@@ -6231,7 +6209,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="142">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44031</v>
       </c>
@@ -6272,7 +6250,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="143">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44032</v>
       </c>
@@ -6313,7 +6291,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="144">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44033</v>
       </c>
@@ -6354,7 +6332,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="145">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44034</v>
       </c>
@@ -6395,7 +6373,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="146">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44035</v>
       </c>
@@ -6436,7 +6414,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="147">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44036</v>
       </c>
@@ -6477,7 +6455,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="148">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44037</v>
       </c>
@@ -6518,7 +6496,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="149">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44038</v>
       </c>
@@ -6559,7 +6537,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="150">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44039</v>
       </c>
@@ -6600,7 +6578,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="151">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44040</v>
       </c>
@@ -6641,7 +6619,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="152">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44041</v>
       </c>
@@ -6682,7 +6660,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="153">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44042</v>
       </c>
@@ -6723,7 +6701,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="154">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44043</v>
       </c>
@@ -6764,7 +6742,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="155">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44044</v>
       </c>
@@ -6805,7 +6783,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="156">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44045</v>
       </c>
@@ -6846,7 +6824,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="157">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44046</v>
       </c>
@@ -6887,7 +6865,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="158">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44047</v>
       </c>
@@ -6928,7 +6906,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="159">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44048</v>
       </c>
@@ -6969,7 +6947,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="160">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44049</v>
       </c>
@@ -7010,7 +6988,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="161">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44050</v>
       </c>
@@ -7051,7 +7029,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="162">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44051</v>
       </c>
@@ -7092,7 +7070,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="163">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44052</v>
       </c>
@@ -7133,7 +7111,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="164">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44053</v>
       </c>
@@ -7174,7 +7152,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="165">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44054</v>
       </c>
@@ -7215,7 +7193,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="166">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44055</v>
       </c>
@@ -7256,7 +7234,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="167">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44056</v>
       </c>
@@ -7297,7 +7275,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="168">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44057</v>
       </c>
@@ -7338,7 +7316,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="169">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44058</v>
       </c>
@@ -7379,7 +7357,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="170">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44059</v>
       </c>
@@ -7420,7 +7398,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="171">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44060</v>
       </c>
@@ -7461,7 +7439,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="172">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44061</v>
       </c>
@@ -7502,7 +7480,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="173">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44062</v>
       </c>
@@ -7543,7 +7521,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="174">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44063</v>
       </c>
@@ -7584,7 +7562,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="175">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44064</v>
       </c>
@@ -7625,7 +7603,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="176">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44065</v>
       </c>
@@ -7666,7 +7644,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="177">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44066</v>
       </c>
@@ -7707,7 +7685,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="178">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44067</v>
       </c>
@@ -7748,7 +7726,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="179">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44068</v>
       </c>
@@ -7789,7 +7767,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="180">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44069</v>
       </c>
@@ -7830,7 +7808,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="181">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44070</v>
       </c>
@@ -7871,7 +7849,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="182">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44071</v>
       </c>
@@ -7912,7 +7890,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="183">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44072</v>
       </c>
@@ -7953,7 +7931,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="184">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44073</v>
       </c>
@@ -7994,7 +7972,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="185">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44074</v>
       </c>
@@ -8035,7 +8013,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="186">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44075</v>
       </c>
@@ -8076,7 +8054,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="187">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44076</v>
       </c>
@@ -8117,7 +8095,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="188">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44077</v>
       </c>
@@ -8158,7 +8136,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="189">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44078</v>
       </c>
@@ -8199,7 +8177,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="190">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44079</v>
       </c>
@@ -8240,7 +8218,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="191">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44080</v>
       </c>
@@ -8281,7 +8259,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="192">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44081</v>
       </c>
@@ -8322,7 +8300,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="193">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44082</v>
       </c>
@@ -8363,7 +8341,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="194">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44083</v>
       </c>
@@ -8404,7 +8382,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="195">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44084</v>
       </c>
@@ -8445,7 +8423,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="196">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44085</v>
       </c>
@@ -8486,7 +8464,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="197">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44086</v>
       </c>
@@ -8527,7 +8505,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="198">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44087</v>
       </c>
@@ -8568,7 +8546,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="199">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44088</v>
       </c>
@@ -8609,7 +8587,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="200">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44089</v>
       </c>
@@ -8650,7 +8628,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="201">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44090</v>
       </c>
@@ -8691,7 +8669,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="202">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44091</v>
       </c>
@@ -8732,7 +8710,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="203">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44092</v>
       </c>
@@ -8773,7 +8751,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="204">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44093</v>
       </c>
@@ -8814,7 +8792,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="205">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44094</v>
       </c>
@@ -8855,7 +8833,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="206">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44095</v>
       </c>
@@ -8896,7 +8874,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="207">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44096</v>
       </c>
@@ -8937,7 +8915,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="208">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44097</v>
       </c>
@@ -8978,7 +8956,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="209">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44098</v>
       </c>
@@ -9019,7 +8997,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="210">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44099</v>
       </c>
@@ -9060,7 +9038,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="211">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44100</v>
       </c>
@@ -9101,7 +9079,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="212">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44101</v>
       </c>
@@ -9142,7 +9120,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="213">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44102</v>
       </c>
@@ -9183,7 +9161,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="214">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44103</v>
       </c>
@@ -9224,7 +9202,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="215">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44104</v>
       </c>
@@ -9265,7 +9243,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="216">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44105</v>
       </c>
@@ -9306,7 +9284,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="217">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44106</v>
       </c>
@@ -9347,7 +9325,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="218">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44107</v>
       </c>
@@ -9388,7 +9366,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="219">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44108</v>
       </c>
@@ -9429,7 +9407,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="220">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44109</v>
       </c>
@@ -9470,7 +9448,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="221">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44110</v>
       </c>
@@ -9511,7 +9489,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="222">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44111</v>
       </c>
@@ -9552,7 +9530,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="223">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44112</v>
       </c>
@@ -9593,7 +9571,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="224">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44113</v>
       </c>
@@ -9634,7 +9612,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="225">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44114</v>
       </c>
@@ -9675,7 +9653,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="226">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44115</v>
       </c>
@@ -9716,7 +9694,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="227">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44116</v>
       </c>
@@ -9757,7 +9735,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="228">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44117</v>
       </c>
@@ -9798,7 +9776,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="229">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44118</v>
       </c>
@@ -9839,7 +9817,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="230">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44119</v>
       </c>
@@ -9880,7 +9858,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="231">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44120</v>
       </c>
@@ -9921,7 +9899,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="232">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44121</v>
       </c>
@@ -9962,7 +9940,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="233">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44122</v>
       </c>
@@ -10003,7 +9981,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="234">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44123</v>
       </c>
@@ -10044,7 +10022,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="235">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44124</v>
       </c>
@@ -10085,7 +10063,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="236">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44125</v>
       </c>
@@ -10126,7 +10104,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="237">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44126</v>
       </c>
@@ -10167,7 +10145,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="238">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44127</v>
       </c>
@@ -10208,7 +10186,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="239">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44128</v>
       </c>
@@ -10249,7 +10227,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="240">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44129</v>
       </c>
@@ -10290,7 +10268,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="241">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44130</v>
       </c>
@@ -10331,7 +10309,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="242">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44131</v>
       </c>
@@ -10372,7 +10350,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="243">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44132</v>
       </c>
@@ -10413,7 +10391,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="244">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44133</v>
       </c>
@@ -10454,7 +10432,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="245">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44134</v>
       </c>
@@ -10495,7 +10473,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="246">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44135</v>
       </c>
@@ -10536,7 +10514,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="247">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44136</v>
       </c>
@@ -10577,7 +10555,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="248">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44137</v>
       </c>
@@ -10618,7 +10596,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="249">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44138</v>
       </c>
@@ -10659,7 +10637,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="250">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44139</v>
       </c>
@@ -10700,7 +10678,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="251">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44140</v>
       </c>
@@ -10741,7 +10719,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="252">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44141</v>
       </c>
@@ -10782,7 +10760,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="253">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44142</v>
       </c>
@@ -10823,7 +10801,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="254">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44143</v>
       </c>
@@ -10864,7 +10842,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="255">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44144</v>
       </c>
@@ -10905,7 +10883,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="256">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44145</v>
       </c>
@@ -10946,7 +10924,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="257">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44146</v>
       </c>
@@ -10987,7 +10965,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="258">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44147</v>
       </c>
@@ -11028,7 +11006,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="259">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44148</v>
       </c>
@@ -11069,7 +11047,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="260">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44149</v>
       </c>
@@ -11110,7 +11088,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="261">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44150</v>
       </c>
@@ -11151,7 +11129,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="262">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44151</v>
       </c>
@@ -11192,7 +11170,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="263">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44152</v>
       </c>
@@ -11233,7 +11211,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="264">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44153</v>
       </c>
@@ -11274,7 +11252,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="265">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44154</v>
       </c>
@@ -11315,7 +11293,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="266">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44155</v>
       </c>
@@ -11356,7 +11334,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="267">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44156</v>
       </c>
@@ -11397,7 +11375,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="268">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44157</v>
       </c>
@@ -11438,7 +11416,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="269">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44158</v>
       </c>
@@ -11479,7 +11457,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="270">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44159</v>
       </c>
@@ -11520,7 +11498,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="271">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44160</v>
       </c>
@@ -11561,7 +11539,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="272">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44161</v>
       </c>
@@ -11602,7 +11580,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="273">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44162</v>
       </c>
@@ -11643,7 +11621,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="274">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44163</v>
       </c>
@@ -11684,7 +11662,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="275">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44164</v>
       </c>
@@ -11725,7 +11703,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="276">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44165</v>
       </c>
@@ -11766,7 +11744,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="277">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44166</v>
       </c>
@@ -11807,7 +11785,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="278">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44167</v>
       </c>
@@ -11848,7 +11826,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="279">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44168</v>
       </c>
@@ -11889,7 +11867,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="280">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44169</v>
       </c>
@@ -11930,7 +11908,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="281">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44170</v>
       </c>
@@ -11971,7 +11949,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="282">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44171</v>
       </c>
@@ -12012,7 +11990,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="283">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44172</v>
       </c>
@@ -12053,7 +12031,7 @@
         <v>4471</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="284">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44173</v>
       </c>
@@ -12094,7 +12072,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="285">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44174</v>
       </c>
@@ -12135,7 +12113,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="286">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44175</v>
       </c>
@@ -12176,7 +12154,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="287">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44176</v>
       </c>
@@ -12217,7 +12195,7 @@
         <v>4719</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="288">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44177</v>
       </c>
@@ -12258,7 +12236,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="289">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44178</v>
       </c>
@@ -12299,7 +12277,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="290">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44179</v>
       </c>
@@ -12340,7 +12318,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="291">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44180</v>
       </c>
@@ -12381,7 +12359,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="292">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44181</v>
       </c>
@@ -12422,7 +12400,7 @@
         <v>4931</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="293">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44182</v>
       </c>
@@ -12463,7 +12441,7 @@
         <v>4975</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="294">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44183</v>
       </c>
@@ -12504,7 +12482,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="295">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44184</v>
       </c>
@@ -12545,7 +12523,7 @@
         <v>5036</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="296">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44185</v>
       </c>
@@ -12586,7 +12564,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="297">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44186</v>
       </c>
@@ -12627,7 +12605,7 @@
         <v>5080</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="298">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44187</v>
       </c>
@@ -12668,7 +12646,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="299">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44188</v>
       </c>
@@ -12709,7 +12687,7 @@
         <v>5133</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="300">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44189</v>
       </c>
@@ -12750,7 +12728,7 @@
         <v>5166</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="301">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44190</v>
       </c>
@@ -12791,7 +12769,7 @@
         <v>5188</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="302">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44191</v>
       </c>
@@ -12832,7 +12810,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="303">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44192</v>
       </c>
@@ -12873,7 +12851,7 @@
         <v>5236</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="304">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44193</v>
       </c>
@@ -12914,7 +12892,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="305">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44194</v>
       </c>
@@ -12955,7 +12933,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="306">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44195</v>
       </c>
@@ -12996,7 +12974,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="307">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44196</v>
       </c>
@@ -13037,7 +13015,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="308">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44197</v>
       </c>
@@ -13078,7 +13056,7 @@
         <v>5354</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="309">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44198</v>
       </c>
@@ -13119,7 +13097,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="310">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44199</v>
       </c>
@@ -13160,7 +13138,7 @@
         <v>5388</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="311">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44200</v>
       </c>
@@ -13201,7 +13179,7 @@
         <v>5416</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="312">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44201</v>
       </c>
@@ -13242,7 +13220,7 @@
         <v>5426</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="313">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44202</v>
       </c>
@@ -13283,7 +13261,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="314">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44203</v>
       </c>
@@ -13324,7 +13302,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="315">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44204</v>
       </c>
@@ -13365,7 +13343,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="316">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44205</v>
       </c>
@@ -13406,7 +13384,7 @@
         <v>5525</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="317">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44206</v>
       </c>
@@ -13447,7 +13425,7 @@
         <v>5541</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="318">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44207</v>
       </c>
@@ -13488,7 +13466,7 @@
         <v>5567</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="319">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44208</v>
       </c>
@@ -13529,7 +13507,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="320">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44209</v>
       </c>
@@ -13570,7 +13548,7 @@
         <v>5617</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="321">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44210</v>
       </c>
@@ -13611,7 +13589,7 @@
         <v>5638</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="322">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44211</v>
       </c>
@@ -13652,7 +13630,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="323">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44212</v>
       </c>
@@ -13693,7 +13671,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="324">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44213</v>
       </c>
@@ -13734,7 +13712,7 @@
         <v>5690</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="325">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44214</v>
       </c>
@@ -13775,7 +13753,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="326">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44215</v>
       </c>
@@ -13816,7 +13794,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="327">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44216</v>
       </c>
@@ -13857,7 +13835,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="328">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44217</v>
       </c>
@@ -13898,7 +13876,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="329">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44218</v>
       </c>
@@ -13939,7 +13917,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="330">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44219</v>
       </c>
@@ -13980,7 +13958,7 @@
         <v>5786</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="331">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44220</v>
       </c>
@@ -14021,7 +13999,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="332">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44221</v>
       </c>
@@ -14062,7 +14040,7 @@
         <v>5809</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="333">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44222</v>
       </c>
@@ -14103,7 +14081,7 @@
         <v>5820</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="334">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44223</v>
       </c>
@@ -14144,7 +14122,7 @@
         <v>5834</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="335">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44224</v>
       </c>
@@ -14185,7 +14163,7 @@
         <v>5842</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="336">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44225</v>
       </c>
@@ -14226,7 +14204,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="337">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44226</v>
       </c>
@@ -14267,7 +14245,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="338">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44227</v>
       </c>
@@ -14308,7 +14286,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="339">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44228</v>
       </c>
@@ -14349,7 +14327,7 @@
         <v>5871</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="340">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44229</v>
       </c>
@@ -14390,7 +14368,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="341">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44230</v>
       </c>
@@ -14431,7 +14409,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="342">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44231</v>
       </c>
@@ -14472,7 +14450,7 @@
         <v>5915</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="343">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44232</v>
       </c>
@@ -14513,7 +14491,7 @@
         <v>5921</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="344">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44233</v>
       </c>
@@ -14554,7 +14532,7 @@
         <v>5929</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="345">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44234</v>
       </c>
@@ -14595,7 +14573,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="346">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44235</v>
       </c>
@@ -14636,7 +14614,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="347">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44236</v>
       </c>
@@ -14677,7 +14655,7 @@
         <v>5945</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="348">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44237</v>
       </c>
@@ -14718,7 +14696,7 @@
         <v>5958</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="349">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44238</v>
       </c>
@@ -14759,7 +14737,7 @@
         <v>5961</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="350">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44239</v>
       </c>
@@ -14800,7 +14778,7 @@
         <v>5966</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="351">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44240</v>
       </c>
@@ -14841,7 +14819,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="352">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44241</v>
       </c>
@@ -14882,7 +14860,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="353">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44242</v>
       </c>
@@ -14923,7 +14901,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="354">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44243</v>
       </c>
@@ -14964,7 +14942,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="355">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44244</v>
       </c>
@@ -15005,7 +14983,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="356">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44245</v>
       </c>
@@ -15046,7 +15024,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="357">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44246</v>
       </c>
@@ -15087,7 +15065,7 @@
         <v>6007</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="358">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44247</v>
       </c>
@@ -15128,7 +15106,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="359">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44248</v>
       </c>
@@ -15169,7 +15147,7 @@
         <v>6015</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="360">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44249</v>
       </c>
@@ -15210,7 +15188,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="361">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44250</v>
       </c>
@@ -15251,7 +15229,7 @@
         <v>6027</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="362">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44251</v>
       </c>
@@ -15292,7 +15270,7 @@
         <v>6030</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="363">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44252</v>
       </c>
@@ -15333,7 +15311,7 @@
         <v>6040</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="364">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44253</v>
       </c>
@@ -15374,7 +15352,7 @@
         <v>6044</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="365">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44254</v>
       </c>
@@ -15415,7 +15393,7 @@
         <v>6046</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="366">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44255</v>
       </c>
@@ -15456,7 +15434,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="367">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44256</v>
       </c>
@@ -15497,7 +15475,7 @@
         <v>6055</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="368">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44257</v>
       </c>
@@ -15538,7 +15516,7 @@
         <v>6058</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="369">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44258</v>
       </c>
@@ -15579,7 +15557,7 @@
         <v>6066</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="370">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44259</v>
       </c>
@@ -15620,7 +15598,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="371">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44260</v>
       </c>
@@ -15661,7 +15639,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="372">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44261</v>
       </c>
@@ -15702,7 +15680,7 @@
         <v>6081</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="373">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44262</v>
       </c>
@@ -15743,7 +15721,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="374">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44263</v>
       </c>
@@ -15784,7 +15762,7 @@
         <v>6087</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="375">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44264</v>
       </c>
@@ -15825,7 +15803,7 @@
         <v>6095</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="376">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44265</v>
       </c>
@@ -15866,7 +15844,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="377">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44266</v>
       </c>
@@ -15907,7 +15885,7 @@
         <v>6109</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="378">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44267</v>
       </c>
@@ -15948,7 +15926,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="379">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44268</v>
       </c>
@@ -15989,7 +15967,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="380">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44269</v>
       </c>
@@ -16030,7 +16008,7 @@
         <v>6122</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="381">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44270</v>
       </c>
@@ -16071,7 +16049,7 @@
         <v>6125</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="382">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44271</v>
       </c>
@@ -16112,7 +16090,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="383">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44272</v>
       </c>
@@ -16153,7 +16131,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="384">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44273</v>
       </c>
@@ -16194,7 +16172,7 @@
         <v>6142</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="385">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44274</v>
       </c>
@@ -16235,7 +16213,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="386">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44275</v>
       </c>
@@ -16276,7 +16254,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="387">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44276</v>
       </c>
@@ -16317,7 +16295,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="388">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44277</v>
       </c>
@@ -16358,7 +16336,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="389">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44278</v>
       </c>
@@ -16399,7 +16377,7 @@
         <v>6154</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="390">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44279</v>
       </c>
@@ -16440,7 +16418,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="391">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44280</v>
       </c>
@@ -16481,7 +16459,7 @@
         <v>6166</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="392">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44281</v>
       </c>
@@ -16522,7 +16500,7 @@
         <v>6168</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="393">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44282</v>
       </c>
@@ -16563,7 +16541,7 @@
         <v>6173</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="394">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44283</v>
       </c>
@@ -16604,7 +16582,7 @@
         <v>6174</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="395">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44284</v>
       </c>
@@ -16645,7 +16623,7 @@
         <v>6181</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="396">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44285</v>
       </c>
@@ -16686,7 +16664,7 @@
         <v>6189</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="397">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44286</v>
       </c>
@@ -16727,7 +16705,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="398">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44287</v>
       </c>
@@ -16768,7 +16746,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="399">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44288</v>
       </c>
@@ -16809,7 +16787,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="400">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44289</v>
       </c>
@@ -16850,7 +16828,7 @@
         <v>6221</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="401">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44290</v>
       </c>
@@ -16891,7 +16869,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="402">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44291</v>
       </c>
@@ -16932,7 +16910,7 @@
         <v>6231</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="403">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44292</v>
       </c>
@@ -16973,7 +16951,7 @@
         <v>6239</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="404">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44293</v>
       </c>
@@ -17014,7 +16992,7 @@
         <v>6244</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="405">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44294</v>
       </c>
@@ -17055,7 +17033,7 @@
         <v>6254</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="406">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44295</v>
       </c>
@@ -17096,7 +17074,7 @@
         <v>6263</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="407">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44296</v>
       </c>
@@ -17137,7 +17115,7 @@
         <v>6266</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="408">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44297</v>
       </c>
@@ -17178,7 +17156,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="409">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44298</v>
       </c>
@@ -17219,7 +17197,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="410">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44299</v>
       </c>
@@ -17260,7 +17238,7 @@
         <v>6289</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="411">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44300</v>
       </c>
@@ -17301,7 +17279,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="412">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44301</v>
       </c>
@@ -17342,7 +17320,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="413">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44302</v>
       </c>
@@ -17383,7 +17361,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="414">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44303</v>
       </c>
@@ -17424,7 +17402,7 @@
         <v>6327</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="415">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44304</v>
       </c>
@@ -17465,7 +17443,7 @@
         <v>6330</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="416">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44305</v>
       </c>
@@ -17506,7 +17484,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="417">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44306</v>
       </c>
@@ -17547,7 +17525,7 @@
         <v>6350</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="418">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44307</v>
       </c>
@@ -17588,7 +17566,7 @@
         <v>6363</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="419">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44308</v>
       </c>
@@ -17629,7 +17607,7 @@
         <v>6380</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="420">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44309</v>
       </c>
@@ -17670,7 +17648,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="421">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44310</v>
       </c>
@@ -17711,7 +17689,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="422">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44311</v>
       </c>
@@ -17752,7 +17730,7 @@
         <v>6412</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="423">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44312</v>
       </c>
@@ -17793,7 +17771,7 @@
         <v>6418</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="424">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44313</v>
       </c>
@@ -17834,7 +17812,7 @@
         <v>6427</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="425">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44314</v>
       </c>
@@ -17875,7 +17853,7 @@
         <v>6437</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="426">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44315</v>
       </c>
@@ -17916,7 +17894,7 @@
         <v>6444</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="427">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44316</v>
       </c>
@@ -17957,7 +17935,7 @@
         <v>6458</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="428">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44317</v>
       </c>
@@ -17998,7 +17976,7 @@
         <v>6463</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="429">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44318</v>
       </c>
@@ -18039,7 +18017,7 @@
         <v>6465</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="430">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44319</v>
       </c>
@@ -18080,7 +18058,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="431">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44320</v>
       </c>
@@ -18121,7 +18099,7 @@
         <v>6489</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="432">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44321</v>
       </c>
@@ -18162,7 +18140,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="433">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44322</v>
       </c>
@@ -18203,7 +18181,7 @@
         <v>6508</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="434">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44323</v>
       </c>
@@ -18244,7 +18222,7 @@
         <v>6517</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="435">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44324</v>
       </c>
@@ -18285,7 +18263,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="436">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44325</v>
       </c>
@@ -18326,7 +18304,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="437">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44326</v>
       </c>
@@ -18367,7 +18345,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="438">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44327</v>
       </c>
@@ -18408,7 +18386,7 @@
         <v>6562</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="439">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44328</v>
       </c>
@@ -18449,7 +18427,7 @@
         <v>6578</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="440">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44329</v>
       </c>
@@ -18490,7 +18468,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="441">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44330</v>
       </c>
@@ -18531,7 +18509,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="442">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44331</v>
       </c>
@@ -18572,7 +18550,7 @@
         <v>6599</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="443">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44332</v>
       </c>
@@ -18613,7 +18591,7 @@
         <v>6606</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="444">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44333</v>
       </c>
@@ -18654,7 +18632,7 @@
         <v>6615</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="445">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44334</v>
       </c>
@@ -18695,7 +18673,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="446">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44335</v>
       </c>
@@ -18736,7 +18714,7 @@
         <v>6630</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="447">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>44336</v>
       </c>
@@ -18777,7 +18755,7 @@
         <v>6638</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="448">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>44337</v>
       </c>
@@ -18818,7 +18796,7 @@
         <v>6648</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="449">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>44338</v>
       </c>
@@ -18859,7 +18837,7 @@
         <v>6652</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="450">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44339</v>
       </c>
@@ -18900,7 +18878,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="451">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>44340</v>
       </c>
@@ -18941,7 +18919,7 @@
         <v>6670</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="452">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>44341</v>
       </c>
@@ -18982,7 +18960,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="453">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>44342</v>
       </c>
@@ -19023,7 +19001,7 @@
         <v>6686</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="454">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>44343</v>
       </c>
@@ -19064,7 +19042,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="455">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>44344</v>
       </c>
@@ -19105,7 +19083,7 @@
         <v>6697</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="456">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>44345</v>
       </c>
@@ -19146,7 +19124,7 @@
         <v>6703</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="457">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>44346</v>
       </c>
@@ -19187,7 +19165,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="458">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>44347</v>
       </c>
@@ -19228,7 +19206,7 @@
         <v>6715</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="459">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>44348</v>
       </c>
@@ -19269,7 +19247,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="460">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>44349</v>
       </c>
@@ -19310,7 +19288,7 @@
         <v>6732</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="461">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>44350</v>
       </c>
@@ -19351,7 +19329,7 @@
         <v>6747</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="462">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>44351</v>
       </c>
@@ -19392,7 +19370,7 @@
         <v>6749</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="463">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>44352</v>
       </c>
@@ -19433,7 +19411,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="464">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>44353</v>
       </c>
@@ -19474,7 +19452,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="465">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44354</v>
       </c>
@@ -19515,7 +19493,7 @@
         <v>6771</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="466">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44355</v>
       </c>
@@ -19556,7 +19534,7 @@
         <v>6777</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="467">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44356</v>
       </c>
@@ -19597,7 +19575,7 @@
         <v>6782</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="468">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>44357</v>
       </c>
@@ -19638,7 +19616,7 @@
         <v>6785</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="469">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>44358</v>
       </c>
@@ -19679,7 +19657,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="470">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44359</v>
       </c>
@@ -19720,7 +19698,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="471">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44360</v>
       </c>
@@ -19761,7 +19739,7 @@
         <v>6795</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="472">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44361</v>
       </c>
@@ -19802,7 +19780,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="473">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44362</v>
       </c>
@@ -19843,7 +19821,7 @@
         <v>6807</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="474">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44363</v>
       </c>
@@ -19884,7 +19862,7 @@
         <v>6812</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="475">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44364</v>
       </c>
@@ -19925,7 +19903,7 @@
         <v>6821</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="476">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>44365</v>
       </c>
@@ -19966,7 +19944,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="477">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>44366</v>
       </c>
@@ -20007,7 +19985,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="478">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>44367</v>
       </c>
@@ -20048,7 +20026,7 @@
         <v>6830</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="479">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>44368</v>
       </c>
@@ -20089,7 +20067,7 @@
         <v>6835</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="480">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>44369</v>
       </c>
@@ -20130,7 +20108,7 @@
         <v>6837</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="481">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>44370</v>
       </c>
@@ -20171,7 +20149,7 @@
         <v>6838</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="482">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>44371</v>
       </c>
@@ -20212,7 +20190,7 @@
         <v>6844</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="483">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44372</v>
       </c>
@@ -20253,7 +20231,7 @@
         <v>6849</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="484">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>44373</v>
       </c>
@@ -20294,7 +20272,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="485">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44374</v>
       </c>
@@ -20335,7 +20313,7 @@
         <v>6856</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="486">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>44375</v>
       </c>
@@ -20376,7 +20354,7 @@
         <v>6865</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="487">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>44376</v>
       </c>
@@ -20417,7 +20395,7 @@
         <v>6872</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="488">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>44377</v>
       </c>
@@ -20458,7 +20436,7 @@
         <v>6877</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="489">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>44378</v>
       </c>
@@ -20499,7 +20477,7 @@
         <v>6884</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="490">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>44379</v>
       </c>
@@ -20540,7 +20518,7 @@
         <v>6890</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="491">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>44380</v>
       </c>
@@ -20581,7 +20559,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="492">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44381</v>
       </c>
@@ -20622,7 +20600,7 @@
         <v>6892</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="493">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>44382</v>
       </c>
@@ -20663,7 +20641,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="494">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>44383</v>
       </c>
@@ -20704,7 +20682,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="495">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>44384</v>
       </c>
@@ -20745,7 +20723,7 @@
         <v>6907</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="496">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>44385</v>
       </c>
@@ -20786,7 +20764,7 @@
         <v>6914</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="497">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>44386</v>
       </c>
@@ -20827,7 +20805,7 @@
         <v>6922</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="498">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>44387</v>
       </c>
@@ -20868,7 +20846,7 @@
         <v>6923</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="499">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>44388</v>
       </c>
@@ -20909,7 +20887,7 @@
         <v>6928</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="500">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>44389</v>
       </c>
@@ -20950,7 +20928,7 @@
         <v>6935</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="501">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>44390</v>
       </c>
@@ -20991,7 +20969,7 @@
         <v>6941</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="502">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>44391</v>
       </c>
@@ -21032,7 +21010,7 @@
         <v>6945</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="503">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>44392</v>
       </c>
@@ -21073,7 +21051,7 @@
         <v>6950</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="504">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>44393</v>
       </c>
@@ -21114,7 +21092,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="505">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>44394</v>
       </c>
@@ -21155,7 +21133,7 @@
         <v>6959</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="506">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44395</v>
       </c>
@@ -21196,7 +21174,7 @@
         <v>6964</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="507">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44396</v>
       </c>
@@ -21237,7 +21215,7 @@
         <v>6971</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="508">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>44397</v>
       </c>
@@ -21278,7 +21256,7 @@
         <v>6980</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="509">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>44398</v>
       </c>
@@ -21319,7 +21297,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="510">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>44399</v>
       </c>
@@ -21360,7 +21338,7 @@
         <v>6991</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="511">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>44400</v>
       </c>
@@ -21401,7 +21379,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="512">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>44401</v>
       </c>
@@ -21442,7 +21420,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="513">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44402</v>
       </c>
@@ -21483,7 +21461,7 @@
         <v>7007</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="514">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44403</v>
       </c>
@@ -21524,7 +21502,7 @@
         <v>7010</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="515">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>44404</v>
       </c>
@@ -21565,7 +21543,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="516">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>44405</v>
       </c>
@@ -21606,7 +21584,7 @@
         <v>7026</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="517">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>44406</v>
       </c>
@@ -21647,7 +21625,7 @@
         <v>7032</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="518">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44407</v>
       </c>
@@ -21688,7 +21666,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="519">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44408</v>
       </c>
@@ -21729,7 +21707,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="520">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44409</v>
       </c>
@@ -21770,7 +21748,7 @@
         <v>7054</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="521">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44410</v>
       </c>
@@ -21811,7 +21789,7 @@
         <v>7060</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="522">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>44411</v>
       </c>
@@ -21852,7 +21830,7 @@
         <v>7073</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="523">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>44412</v>
       </c>
@@ -21893,7 +21871,7 @@
         <v>7077</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="524">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>44413</v>
       </c>
@@ -21934,7 +21912,7 @@
         <v>7088</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="525">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>44414</v>
       </c>
@@ -21975,7 +21953,7 @@
         <v>7099</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="526">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44415</v>
       </c>
@@ -22016,7 +21994,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="527">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44416</v>
       </c>
@@ -22057,7 +22035,7 @@
         <v>7114</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="528">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44417</v>
       </c>
@@ -22098,7 +22076,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="529">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>44418</v>
       </c>
@@ -22139,7 +22117,7 @@
         <v>7137</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="530">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>44419</v>
       </c>
@@ -22180,7 +22158,7 @@
         <v>7152</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="531">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>44420</v>
       </c>
@@ -22221,7 +22199,7 @@
         <v>7166</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="532">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>44421</v>
       </c>
@@ -22262,7 +22240,7 @@
         <v>7181</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="533">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44422</v>
       </c>
@@ -22303,7 +22281,7 @@
         <v>7189</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="534">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44423</v>
       </c>
@@ -22344,7 +22322,7 @@
         <v>7196</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="535">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44424</v>
       </c>
@@ -22385,7 +22363,7 @@
         <v>7211</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="536">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44425</v>
       </c>
@@ -22426,7 +22404,7 @@
         <v>7223</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="537">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44426</v>
       </c>
@@ -22467,7 +22445,7 @@
         <v>7236</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="538">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44427</v>
       </c>
@@ -22508,7 +22486,7 @@
         <v>7249</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="539">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44428</v>
       </c>
@@ -22549,7 +22527,7 @@
         <v>7260</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="540">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44429</v>
       </c>
@@ -22590,7 +22568,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="541">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44430</v>
       </c>
@@ -22631,7 +22609,7 @@
         <v>7276</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="542">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44431</v>
       </c>
@@ -22672,7 +22650,7 @@
         <v>7285</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="543">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44432</v>
       </c>
@@ -22713,7 +22691,7 @@
         <v>7294</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="544">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44433</v>
       </c>
@@ -22754,7 +22732,7 @@
         <v>7313</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="545">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>44434</v>
       </c>
@@ -22795,7 +22773,7 @@
         <v>7322</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="546">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>44435</v>
       </c>
@@ -22836,7 +22814,7 @@
         <v>7338</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="547">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44436</v>
       </c>
@@ -22877,7 +22855,7 @@
         <v>7343</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="548">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44437</v>
       </c>
@@ -22918,7 +22896,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="549">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44438</v>
       </c>
@@ -22959,7 +22937,7 @@
         <v>7385</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="550">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>44439</v>
       </c>
@@ -23000,7 +22978,7 @@
         <v>7399</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="551">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>44440</v>
       </c>
@@ -23041,7 +23019,7 @@
         <v>7411</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="552">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>44441</v>
       </c>
@@ -23082,7 +23060,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="553">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>44442</v>
       </c>
@@ -23123,7 +23101,7 @@
         <v>7456</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="554">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44443</v>
       </c>
@@ -23164,7 +23142,7 @@
         <v>7469</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="555">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44444</v>
       </c>
@@ -23205,7 +23183,7 @@
         <v>7486</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="556">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>44445</v>
       </c>
@@ -23246,7 +23224,7 @@
         <v>7499</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="557">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>44446</v>
       </c>
@@ -23287,7 +23265,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="558">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>44447</v>
       </c>
@@ -23328,7 +23306,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="559">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>44448</v>
       </c>
@@ -23369,7 +23347,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="560">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>44449</v>
       </c>
@@ -23410,7 +23388,7 @@
         <v>7567</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="561">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>44450</v>
       </c>
@@ -23451,7 +23429,7 @@
         <v>7581</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="562">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>44451</v>
       </c>
@@ -23492,7 +23470,7 @@
         <v>7588</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="563">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>44452</v>
       </c>
@@ -23533,7 +23511,7 @@
         <v>7607</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="564">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>44453</v>
       </c>
@@ -23574,7 +23552,7 @@
         <v>7631</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="565">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>44454</v>
       </c>
@@ -23615,7 +23593,7 @@
         <v>7646</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="566">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>44455</v>
       </c>
@@ -23656,7 +23634,7 @@
         <v>7675</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="567">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>44456</v>
       </c>
@@ -23697,7 +23675,7 @@
         <v>7695</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="568">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>44457</v>
       </c>
@@ -23738,7 +23716,7 @@
         <v>7702</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="569">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>44458</v>
       </c>
@@ -23779,7 +23757,7 @@
         <v>7716</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="570">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>44459</v>
       </c>
@@ -23820,7 +23798,7 @@
         <v>7736</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="571">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>44460</v>
       </c>
@@ -23861,7 +23839,7 @@
         <v>7758</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="572">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>44461</v>
       </c>
@@ -23902,7 +23880,7 @@
         <v>7779</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="573">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>44462</v>
       </c>
@@ -23943,7 +23921,7 @@
         <v>7801</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="574">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>44463</v>
       </c>
@@ -23984,7 +23962,7 @@
         <v>7825</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="575">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>44464</v>
       </c>
@@ -24025,7 +24003,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="576">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>44465</v>
       </c>
@@ -24066,7 +24044,7 @@
         <v>7852</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="577">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>44466</v>
       </c>
@@ -24107,7 +24085,7 @@
         <v>7866</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="578">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>44467</v>
       </c>
@@ -24148,7 +24126,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="579">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>44468</v>
       </c>
@@ -24189,7 +24167,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="580">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>44469</v>
       </c>
@@ -24230,7 +24208,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="581">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>44470</v>
       </c>
@@ -24271,7 +24249,7 @@
         <v>7957</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="582">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>44471</v>
       </c>
@@ -24312,7 +24290,7 @@
         <v>7974</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="583">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>44472</v>
       </c>
@@ -24353,7 +24331,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="584">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>44473</v>
       </c>
@@ -24394,7 +24372,7 @@
         <v>8022</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="585">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>44474</v>
       </c>
@@ -24435,7 +24413,7 @@
         <v>8048</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="586">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>44475</v>
       </c>
@@ -24476,7 +24454,7 @@
         <v>8079</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="587">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>44476</v>
       </c>
@@ -24517,7 +24495,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="588">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>44477</v>
       </c>
@@ -24558,7 +24536,7 @@
         <v>8126</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="589">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>44478</v>
       </c>
@@ -24599,7 +24577,7 @@
         <v>8149</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="590">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>44479</v>
       </c>
@@ -24640,7 +24618,7 @@
         <v>8166</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="591">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>44480</v>
       </c>
@@ -24681,7 +24659,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="592">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>44481</v>
       </c>
@@ -24722,7 +24700,7 @@
         <v>8215</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="593">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>44482</v>
       </c>
@@ -24763,7 +24741,7 @@
         <v>8239</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="594">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>44483</v>
       </c>
@@ -24804,7 +24782,7 @@
         <v>8268</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="595">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>44484</v>
       </c>
@@ -24845,7 +24823,7 @@
         <v>8288</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="596">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>44485</v>
       </c>
@@ -24886,7 +24864,7 @@
         <v>8315</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="597">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>44486</v>
       </c>
@@ -24927,7 +24905,7 @@
         <v>8343</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="598">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>44487</v>
       </c>
@@ -24968,7 +24946,7 @@
         <v>8367</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="599">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>44488</v>
       </c>
@@ -25009,7 +24987,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="600">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>44489</v>
       </c>
@@ -25050,7 +25028,7 @@
         <v>8436</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="601">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>44490</v>
       </c>
@@ -25091,7 +25069,7 @@
         <v>8471</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="602">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>44491</v>
       </c>
@@ -25132,7 +25110,7 @@
         <v>8513</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="603">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>44492</v>
       </c>
@@ -25173,7 +25151,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="604">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>44493</v>
       </c>
@@ -25214,7 +25192,7 @@
         <v>8568</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="605">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>44494</v>
       </c>
@@ -25255,7 +25233,7 @@
         <v>8603</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="606">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>44495</v>
       </c>
@@ -25296,7 +25274,7 @@
         <v>8642</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="607">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>44496</v>
       </c>
@@ -25337,7 +25315,7 @@
         <v>8683</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="608">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>44497</v>
       </c>
@@ -25378,7 +25356,7 @@
         <v>8717</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="609">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>44498</v>
       </c>
@@ -25419,7 +25397,7 @@
         <v>8761</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="610">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>44499</v>
       </c>
@@ -25460,7 +25438,7 @@
         <v>8785</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="611">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>44500</v>
       </c>
@@ -25501,7 +25479,7 @@
         <v>8806</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="612">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>44501</v>
       </c>
@@ -25542,7 +25520,7 @@
         <v>8847</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="613">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>44502</v>
       </c>
@@ -25583,7 +25561,7 @@
         <v>8879</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="614">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>44503</v>
       </c>
@@ -25624,7 +25602,7 @@
         <v>8926</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="615">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>44504</v>
       </c>
@@ -25665,7 +25643,7 @@
         <v>8966</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="616">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>44505</v>
       </c>
@@ -25706,7 +25684,7 @@
         <v>9008</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="617">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>44506</v>
       </c>
@@ -25747,7 +25725,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="618">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>44507</v>
       </c>
@@ -25788,7 +25766,7 @@
         <v>9058</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="619">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>44508</v>
       </c>
@@ -25829,7 +25807,7 @@
         <v>9094</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="620">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>44509</v>
       </c>
@@ -25870,7 +25848,7 @@
         <v>9134</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="621">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>44510</v>
       </c>
@@ -25911,7 +25889,7 @@
         <v>9182</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="622">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>44511</v>
       </c>
@@ -25952,7 +25930,7 @@
         <v>9228</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="623">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>44512</v>
       </c>
@@ -25993,7 +25971,7 @@
         <v>9262</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="624">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>44513</v>
       </c>
@@ -26034,7 +26012,7 @@
         <v>9287</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="625">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>44514</v>
       </c>
@@ -26075,7 +26053,7 @@
         <v>9309</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="626">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>44515</v>
       </c>
@@ -26116,7 +26094,7 @@
         <v>9369</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="627">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>44516</v>
       </c>
@@ -26157,7 +26135,7 @@
         <v>9421</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="628">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>44517</v>
       </c>
@@ -26198,7 +26176,7 @@
         <v>9468</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="629">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>44518</v>
       </c>
@@ -26239,7 +26217,7 @@
         <v>9499</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="630">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>44519</v>
       </c>
@@ -26280,7 +26258,7 @@
         <v>9533</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="631">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>44520</v>
       </c>
@@ -26321,7 +26299,7 @@
         <v>9551</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="632">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>44521</v>
       </c>
@@ -26362,7 +26340,7 @@
         <v>9573</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="633">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>44522</v>
       </c>
@@ -26403,7 +26381,7 @@
         <v>9610</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="634">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>44523</v>
       </c>
@@ -26444,7 +26422,7 @@
         <v>9655</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="635">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>44524</v>
       </c>
@@ -26485,7 +26463,7 @@
         <v>9701</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="636">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>44525</v>
       </c>
@@ -26526,7 +26504,7 @@
         <v>9714</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="637">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>44526</v>
       </c>
@@ -26567,7 +26545,7 @@
         <v>9763</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="638">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>44527</v>
       </c>
@@ -26608,7 +26586,7 @@
         <v>9795</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="639">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>44528</v>
       </c>
@@ -26649,7 +26627,7 @@
         <v>9820</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="640">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>44529</v>
       </c>
@@ -26690,7 +26668,7 @@
         <v>9854</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="641">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>44530</v>
       </c>
@@ -26731,7 +26709,7 @@
         <v>9893</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="642">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>44531</v>
       </c>
@@ -26772,7 +26750,7 @@
         <v>9920</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="643">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>44532</v>
       </c>
@@ -26813,7 +26791,7 @@
         <v>9953</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="644">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>44533</v>
       </c>
@@ -26854,7 +26832,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="645">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>44534</v>
       </c>
@@ -26895,7 +26873,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="646">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>44535</v>
       </c>
@@ -26936,7 +26914,7 @@
         <v>10026</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="647">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>44536</v>
       </c>
@@ -26977,7 +26955,7 @@
         <v>10078</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="648">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>44537</v>
       </c>
@@ -27018,7 +26996,7 @@
         <v>10117</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="649">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>44538</v>
       </c>
@@ -27059,7 +27037,7 @@
         <v>10147</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="650">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>44539</v>
       </c>
@@ -27100,7 +27078,7 @@
         <v>10191</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="651">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>44540</v>
       </c>
@@ -27141,7 +27119,7 @@
         <v>10216</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="652">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>44541</v>
       </c>
@@ -27182,7 +27160,7 @@
         <v>10233</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="653">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>44542</v>
       </c>
@@ -27223,7 +27201,7 @@
         <v>10246</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="654">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>44543</v>
       </c>
@@ -27264,7 +27242,7 @@
         <v>10267</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="655">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>44544</v>
       </c>
@@ -27305,7 +27283,7 @@
         <v>10298</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="656">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>44545</v>
       </c>
@@ -27346,7 +27324,7 @@
         <v>10323</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="657">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>44546</v>
       </c>
@@ -27387,7 +27365,7 @@
         <v>10348</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="658">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>44547</v>
       </c>
@@ -27428,7 +27406,7 @@
         <v>10372</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="659">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>44548</v>
       </c>
@@ -27469,7 +27447,7 @@
         <v>10387</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="660">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>44549</v>
       </c>
@@ -27510,7 +27488,7 @@
         <v>10414</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="661">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>44550</v>
       </c>
@@ -27551,7 +27529,7 @@
         <v>10442</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="662">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>44551</v>
       </c>
@@ -27592,7 +27570,7 @@
         <v>10472</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="663">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>44552</v>
       </c>
@@ -27633,7 +27611,7 @@
         <v>10495</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="664">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>44553</v>
       </c>
@@ -27674,7 +27652,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="665">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>44554</v>
       </c>
@@ -27715,7 +27693,7 @@
         <v>10529</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="666">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>44555</v>
       </c>
@@ -27756,7 +27734,7 @@
         <v>10538</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="667">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>44556</v>
       </c>
@@ -27797,7 +27775,7 @@
         <v>10554</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="668">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>44557</v>
       </c>
@@ -27838,7 +27816,7 @@
         <v>10580</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="669">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>44558</v>
       </c>
@@ -27879,7 +27857,7 @@
         <v>10603</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="670">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>44559</v>
       </c>
@@ -27920,7 +27898,7 @@
         <v>10641</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="671">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>44560</v>
       </c>
@@ -27961,7 +27939,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="672">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>44561</v>
       </c>
@@ -28002,7 +27980,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="673">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>44562</v>
       </c>
@@ -28043,7 +28021,7 @@
         <v>10715</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="674">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>44563</v>
       </c>
@@ -28084,7 +28062,7 @@
         <v>10725</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="675">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>44564</v>
       </c>
@@ -28125,7 +28103,7 @@
         <v>10762</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="676">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>44565</v>
       </c>
@@ -28166,7 +28144,7 @@
         <v>10797</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="677">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>44566</v>
       </c>
@@ -28207,7 +28185,7 @@
         <v>10860</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="678">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>44567</v>
       </c>
@@ -28248,7 +28226,7 @@
         <v>10916</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="679">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>44568</v>
       </c>
@@ -28289,7 +28267,7 @@
         <v>10964</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="680">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>44569</v>
       </c>
@@ -28330,7 +28308,7 @@
         <v>10996</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="681">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>44570</v>
       </c>
@@ -28371,7 +28349,7 @@
         <v>11024</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="682">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>44571</v>
       </c>
@@ -28412,7 +28390,7 @@
         <v>11072</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="683">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>44572</v>
       </c>
@@ -28453,7 +28431,7 @@
         <v>11108</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="684">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>44573</v>
       </c>
@@ -28494,7 +28472,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="685">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>44574</v>
       </c>
@@ -28535,7 +28513,7 @@
         <v>11187</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="686">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>44575</v>
       </c>
@@ -28576,7 +28554,7 @@
         <v>11244</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="687">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>44576</v>
       </c>
@@ -28617,7 +28595,7 @@
         <v>11273</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="688">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>44577</v>
       </c>
@@ -28658,7 +28636,7 @@
         <v>11296</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="689">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>44578</v>
       </c>
@@ -28699,7 +28677,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="690">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>44579</v>
       </c>
@@ -28740,7 +28718,7 @@
         <v>11357</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="691">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>44580</v>
       </c>
@@ -28781,7 +28759,7 @@
         <v>11393</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="692">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>44581</v>
       </c>
@@ -28822,7 +28800,7 @@
         <v>11428</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="693">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>44582</v>
       </c>
@@ -28863,7 +28841,7 @@
         <v>11451</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="694">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>44583</v>
       </c>
@@ -28904,7 +28882,7 @@
         <v>11473</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="695">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>44584</v>
       </c>
@@ -28945,7 +28923,7 @@
         <v>11487</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="696">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>44585</v>
       </c>
@@ -28986,7 +28964,7 @@
         <v>11524</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="697">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>44586</v>
       </c>
@@ -29027,7 +29005,7 @@
         <v>11554</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="698">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>44587</v>
       </c>
@@ -29068,7 +29046,7 @@
         <v>11590</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="699">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>44588</v>
       </c>
@@ -29109,7 +29087,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="700">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>44589</v>
       </c>
@@ -29150,7 +29128,7 @@
         <v>11631</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="701">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>44590</v>
       </c>
@@ -29191,7 +29169,7 @@
         <v>11645</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="702">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>44591</v>
       </c>
@@ -29232,7 +29210,7 @@
         <v>11655</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="703">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>44592</v>
       </c>
@@ -29273,7 +29251,7 @@
         <v>11677</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="704">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>44593</v>
       </c>
@@ -29314,7 +29292,7 @@
         <v>11688</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="705">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>44594</v>
       </c>
@@ -29355,7 +29333,7 @@
         <v>11706</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="706">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>44595</v>
       </c>
@@ -29396,7 +29374,7 @@
         <v>11717</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="707">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>44596</v>
       </c>
@@ -29437,7 +29415,7 @@
         <v>11734</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="708">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>44597</v>
       </c>
@@ -29478,7 +29456,7 @@
         <v>11756</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="709">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>44598</v>
       </c>
@@ -29519,7 +29497,7 @@
         <v>11760</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="710">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>44599</v>
       </c>
@@ -29560,7 +29538,7 @@
         <v>11771</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="711">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>44600</v>
       </c>
@@ -29601,7 +29579,7 @@
         <v>11775</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="712">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>44601</v>
       </c>
@@ -29642,7 +29620,7 @@
         <v>11798</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="713">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>44602</v>
       </c>
@@ -29683,7 +29661,7 @@
         <v>11809</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="714">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>44603</v>
       </c>
@@ -29724,7 +29702,7 @@
         <v>11817</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="715">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>44604</v>
       </c>
@@ -29765,7 +29743,7 @@
         <v>11824</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="716">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>44605</v>
       </c>
@@ -29806,7 +29784,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="717">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>44606</v>
       </c>
@@ -29847,7 +29825,7 @@
         <v>11832</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="718">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>44607</v>
       </c>
@@ -29888,7 +29866,7 @@
         <v>11840</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="719">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>44608</v>
       </c>
@@ -29929,7 +29907,7 @@
         <v>11847</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="720">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>44609</v>
       </c>
@@ -29970,7 +29948,7 @@
         <v>11852</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="721">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>44610</v>
       </c>
@@ -30011,7 +29989,7 @@
         <v>11853</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="722">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>44611</v>
       </c>
@@ -30052,7 +30030,7 @@
         <v>11858</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="723">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>44612</v>
       </c>
@@ -30093,7 +30071,7 @@
         <v>11861</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="724">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>44613</v>
       </c>
@@ -30134,7 +30112,7 @@
         <v>11865</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="725">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>44614</v>
       </c>
@@ -30175,7 +30153,7 @@
         <v>11880</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="726">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>44615</v>
       </c>
@@ -30216,7 +30194,7 @@
         <v>11881</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="727">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>44616</v>
       </c>
@@ -30257,7 +30235,7 @@
         <v>11883</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="728">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>44617</v>
       </c>
@@ -30298,7 +30276,7 @@
         <v>11885</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="729">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>44618</v>
       </c>
@@ -30339,7 +30317,7 @@
         <v>11887</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="730">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>44619</v>
       </c>
@@ -30380,7 +30358,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="731">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>44620</v>
       </c>
@@ -30421,7 +30399,7 @@
         <v>11895</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="732">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>44621</v>
       </c>
@@ -30462,7 +30440,7 @@
         <v>11897</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="733">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>44622</v>
       </c>
@@ -30503,7 +30481,7 @@
         <v>11902</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="734">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>44623</v>
       </c>
@@ -30544,7 +30522,7 @@
         <v>11904</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="735">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>44624</v>
       </c>
@@ -30585,7 +30563,7 @@
         <v>11906</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="736">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>44625</v>
       </c>
@@ -30626,7 +30604,7 @@
         <v>11907</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="737">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>44626</v>
       </c>
@@ -30667,7 +30645,7 @@
         <v>11907</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="738">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>44627</v>
       </c>
@@ -30708,7 +30686,7 @@
         <v>11908</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="739">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>44628</v>
       </c>
@@ -30749,7 +30727,7 @@
         <v>11914</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="740">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>44629</v>
       </c>
@@ -30790,7 +30768,7 @@
         <v>11916</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="741">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>44630</v>
       </c>
@@ -30831,7 +30809,7 @@
         <v>11918</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="742">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>44631</v>
       </c>
@@ -30872,7 +30850,7 @@
         <v>11919</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="743">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>44632</v>
       </c>
@@ -30913,7 +30891,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="744">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>44633</v>
       </c>
@@ -30954,7 +30932,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="745">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>44634</v>
       </c>
@@ -30995,7 +30973,7 @@
         <v>11923</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="746">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>44635</v>
       </c>
@@ -31036,7 +31014,7 @@
         <v>11926</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="747">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>44636</v>
       </c>
@@ -31077,7 +31055,7 @@
         <v>11929</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="748">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>44637</v>
       </c>
@@ -31118,7 +31096,7 @@
         <v>11929</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="749">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>44638</v>
       </c>
@@ -31159,7 +31137,7 @@
         <v>11930</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="750">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>44639</v>
       </c>
@@ -31200,7 +31178,7 @@
         <v>11930</v>
       </c>
     </row>
-    <row spans="1:13" x14ac:dyDescent="0.25" outlineLevel="0" r="751">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>44640</v>
       </c>
@@ -31241,85 +31219,44 @@
         <v>11930</v>
       </c>
     </row>
-    <row outlineLevel="0" r="752">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>44641</v>
       </c>
-      <c r="B752" s="0">
+      <c r="B752">
         <v>165</v>
       </c>
-      <c r="C752" s="0">
+      <c r="C752">
         <v>1216656</v>
       </c>
-      <c r="D752" s="0">
+      <c r="D752">
         <v>39</v>
       </c>
-      <c r="E752" s="0">
+      <c r="E752">
         <v>119120</v>
       </c>
-      <c r="F752" s="0">
+      <c r="F752">
         <v>204</v>
       </c>
-      <c r="G752" s="0">
+      <c r="G752">
         <v>1335776</v>
       </c>
-      <c r="H752" s="0">
-        <v>0</v>
-      </c>
-      <c r="I752" s="0">
+      <c r="H752">
+        <v>0</v>
+      </c>
+      <c r="I752">
         <v>10485</v>
       </c>
-      <c r="J752" s="0">
+      <c r="J752">
         <v>3</v>
       </c>
-      <c r="K752" s="0">
+      <c r="K752">
         <v>1448</v>
       </c>
-      <c r="L752" s="0">
+      <c r="L752">
         <v>3</v>
       </c>
-      <c r="M752" s="0">
-        <v>11933</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="753">
-      <c r="A753" s="1">
-        <v>44642</v>
-      </c>
-      <c r="B753" s="0">
-        <v>0</v>
-      </c>
-      <c r="C753" s="0">
-        <v>1216656</v>
-      </c>
-      <c r="D753" s="0">
-        <v>0</v>
-      </c>
-      <c r="E753" s="0">
-        <v>119120</v>
-      </c>
-      <c r="F753" s="0">
-        <v>0</v>
-      </c>
-      <c r="G753" s="0">
-        <v>1335776</v>
-      </c>
-      <c r="H753" s="0">
-        <v>0</v>
-      </c>
-      <c r="I753" s="0">
-        <v>10485</v>
-      </c>
-      <c r="J753" s="0">
-        <v>0</v>
-      </c>
-      <c r="K753" s="0">
-        <v>1448</v>
-      </c>
-      <c r="L753" s="0">
-        <v>0</v>
-      </c>
-      <c r="M753" s="0">
+      <c r="M752">
         <v>11933</v>
       </c>
     </row>
